--- a/JupyterNotebooks/AvgHW/ShearF-HW50.xlsx
+++ b/JupyterNotebooks/AvgHW/ShearF-HW50.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,28 +82,28 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
-  </si>
-  <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,28 +626,28 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>1.000261405711216</v>
+      </c>
+      <c r="D3">
         <v>0.9999346459020385</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>1.000261405711216</v>
-      </c>
-      <c r="E3">
-        <v>0.9999346459020385</v>
       </c>
       <c r="F3">
         <v>0.9999346459020385</v>
       </c>
       <c r="G3">
-        <v>0.9998257291731821</v>
+        <v>0.9999346459020385</v>
       </c>
       <c r="H3">
         <v>1.000143771385049</v>
       </c>
       <c r="I3">
+        <v>0.9998257291731821</v>
+      </c>
+      <c r="J3">
         <v>0.9999346459020385</v>
-      </c>
-      <c r="J3">
-        <v>1.000261405711216</v>
       </c>
       <c r="K3">
         <v>0.9999346459020385</v>
@@ -728,7 +680,7 @@
         <v>1.00000580732926</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,28 +688,28 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <v>1.000504638976168</v>
+      </c>
+      <c r="D4">
         <v>0.9998738381124863</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>1.000504638976168</v>
-      </c>
-      <c r="E4">
-        <v>0.9998738381124863</v>
       </c>
       <c r="F4">
         <v>0.9998738381124863</v>
       </c>
       <c r="G4">
-        <v>0.9996635714710189</v>
+        <v>0.9998738381124863</v>
       </c>
       <c r="H4">
         <v>1.000277550320195</v>
       </c>
       <c r="I4">
+        <v>0.9996635714710189</v>
+      </c>
+      <c r="J4">
         <v>0.9998738381124863</v>
-      </c>
-      <c r="J4">
-        <v>1.000504638976168</v>
       </c>
       <c r="K4">
         <v>0.9998738381124863</v>
@@ -790,7 +742,7 @@
         <v>1.000011212517473</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,28 +750,28 @@
         <v>3</v>
       </c>
       <c r="C5">
+        <v>1.00096708360052</v>
+      </c>
+      <c r="D5">
         <v>0.9997582274323231</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>1.00096708360052</v>
-      </c>
-      <c r="E5">
-        <v>0.9997582274323231</v>
       </c>
       <c r="F5">
         <v>0.9997582274323231</v>
       </c>
       <c r="G5">
-        <v>0.9993552796067325</v>
+        <v>0.9997582274323231</v>
       </c>
       <c r="H5">
         <v>1.000531893966553</v>
       </c>
       <c r="I5">
+        <v>0.9993552796067325</v>
+      </c>
+      <c r="J5">
         <v>0.9997582274323231</v>
-      </c>
-      <c r="J5">
-        <v>1.00096708360052</v>
       </c>
       <c r="K5">
         <v>0.9997582274323231</v>
@@ -852,7 +804,7 @@
         <v>1.000021489911796</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,28 +812,28 @@
         <v>4</v>
       </c>
       <c r="C6">
+        <v>1.001418396481083</v>
+      </c>
+      <c r="D6">
         <v>0.9996453997972402</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>1.001418396481083</v>
-      </c>
-      <c r="E6">
-        <v>0.9996453997972402</v>
       </c>
       <c r="F6">
         <v>0.9996453997972402</v>
       </c>
       <c r="G6">
-        <v>0.9990544008062195</v>
+        <v>0.9996453997972402</v>
       </c>
       <c r="H6">
         <v>1.000780107630316</v>
       </c>
       <c r="I6">
+        <v>0.9990544008062195</v>
+      </c>
+      <c r="J6">
         <v>0.9996453997972402</v>
-      </c>
-      <c r="J6">
-        <v>1.001418396481083</v>
       </c>
       <c r="K6">
         <v>0.9996453997972402</v>
@@ -914,7 +866,7 @@
         <v>1.00003151738489</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,28 +874,28 @@
         <v>5</v>
       </c>
       <c r="C7">
+        <v>1.000017132146924</v>
+      </c>
+      <c r="D7">
         <v>0.9999957145475029</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>1.000017132146924</v>
-      </c>
-      <c r="E7">
-        <v>0.9999957145475029</v>
       </c>
       <c r="F7">
         <v>0.9999957145475029</v>
       </c>
       <c r="G7">
-        <v>0.9999885779639821</v>
+        <v>0.9999957145475029</v>
       </c>
       <c r="H7">
         <v>1.000009421414056</v>
       </c>
       <c r="I7">
+        <v>0.9999885779639821</v>
+      </c>
+      <c r="J7">
         <v>0.9999957145475029</v>
-      </c>
-      <c r="J7">
-        <v>1.000017132146924</v>
       </c>
       <c r="K7">
         <v>0.9999957145475029</v>
@@ -952,10 +904,10 @@
         <v>0.9999957145475029</v>
       </c>
       <c r="M7">
-        <v>1.000006423347213</v>
+        <v>1.000006423347214</v>
       </c>
       <c r="N7">
-        <v>1.000006423347213</v>
+        <v>1.000006423347214</v>
       </c>
       <c r="O7">
         <v>1.000007422702828</v>
@@ -973,10 +925,10 @@
         <v>1.000001068947358</v>
       </c>
       <c r="T7">
-        <v>1.000000379194578</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>1.000000379194579</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,28 +936,28 @@
         <v>6</v>
       </c>
       <c r="C8">
+        <v>1.000039883468302</v>
+      </c>
+      <c r="D8">
         <v>0.9999900267190296</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>1.000039883468302</v>
-      </c>
-      <c r="E8">
-        <v>0.9999900267190296</v>
       </c>
       <c r="F8">
         <v>0.9999900267190296</v>
       </c>
       <c r="G8">
-        <v>0.9999734106279778</v>
+        <v>0.9999900267190296</v>
       </c>
       <c r="H8">
         <v>1.000021934678361</v>
       </c>
       <c r="I8">
+        <v>0.9999734106279775</v>
+      </c>
+      <c r="J8">
         <v>0.9999900267190296</v>
-      </c>
-      <c r="J8">
-        <v>1.000039883468302</v>
       </c>
       <c r="K8">
         <v>0.9999900267190296</v>
@@ -1038,7 +990,7 @@
         <v>1.000000884821955</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,28 +998,28 @@
         <v>7</v>
       </c>
       <c r="C9">
+        <v>1.00005312462476</v>
+      </c>
+      <c r="D9">
         <v>0.9999867165035378</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>1.00005312462476</v>
-      </c>
-      <c r="E9">
-        <v>0.9999867165035378</v>
       </c>
       <c r="F9">
         <v>0.9999867165035378</v>
       </c>
       <c r="G9">
-        <v>0.9999645831053817</v>
+        <v>0.9999867165035378</v>
       </c>
       <c r="H9">
         <v>1.000029217134552</v>
       </c>
       <c r="I9">
+        <v>0.9999645831053817</v>
+      </c>
+      <c r="J9">
         <v>0.9999867165035378</v>
-      </c>
-      <c r="J9">
-        <v>1.00005312462476</v>
       </c>
       <c r="K9">
         <v>0.9999867165035378</v>
@@ -1100,7 +1052,7 @@
         <v>1.000001179062551</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,28 +1060,28 @@
         <v>8</v>
       </c>
       <c r="C10">
+        <v>1.00011720907637</v>
+      </c>
+      <c r="D10">
         <v>0.9999706952003459</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>1.00011720907637</v>
-      </c>
-      <c r="E10">
-        <v>0.9999706952003459</v>
       </c>
       <c r="F10">
         <v>0.9999706952003459</v>
       </c>
       <c r="G10">
-        <v>0.9999218608965403</v>
+        <v>0.9999706952003459</v>
       </c>
       <c r="H10">
         <v>1.000064462919126</v>
       </c>
       <c r="I10">
+        <v>0.9999218608965403</v>
+      </c>
+      <c r="J10">
         <v>0.9999706952003459</v>
-      </c>
-      <c r="J10">
-        <v>1.00011720907637</v>
       </c>
       <c r="K10">
         <v>0.9999706952003459</v>
@@ -1144,7 +1096,7 @@
         <v>1.000043952138358</v>
       </c>
       <c r="O10">
-        <v>1.00005078906528</v>
+        <v>1.000050789065281</v>
       </c>
       <c r="P10">
         <v>1.00001953315902</v>
@@ -1162,7 +1114,7 @@
         <v>1.000002603082179</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,28 +1122,28 @@
         <v>9</v>
       </c>
       <c r="C11">
+        <v>1.000186599095983</v>
+      </c>
+      <c r="D11">
         <v>0.9999533474123841</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>1.000186599095983</v>
-      </c>
-      <c r="E11">
-        <v>0.9999533474123841</v>
       </c>
       <c r="F11">
         <v>0.9999533474123841</v>
       </c>
       <c r="G11">
-        <v>0.9998755986670198</v>
+        <v>0.9999533474123841</v>
       </c>
       <c r="H11">
         <v>1.000102627263866</v>
       </c>
       <c r="I11">
+        <v>0.9998755986670198</v>
+      </c>
+      <c r="J11">
         <v>0.9999533474123841</v>
-      </c>
-      <c r="J11">
-        <v>1.000186599095983</v>
       </c>
       <c r="K11">
         <v>0.9999533474123841</v>
@@ -1224,7 +1176,7 @@
         <v>1.000004144544003</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,28 +1184,28 @@
         <v>10</v>
       </c>
       <c r="C12">
+        <v>0.9987442807092567</v>
+      </c>
+      <c r="D12">
         <v>1.000313923165885</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>0.9987442807092567</v>
-      </c>
-      <c r="E12">
-        <v>1.000313923165885</v>
       </c>
       <c r="F12">
         <v>1.000313923165885</v>
       </c>
       <c r="G12">
-        <v>1.000837139764808</v>
+        <v>1.000313923165885</v>
       </c>
       <c r="H12">
         <v>0.9993093563590919</v>
       </c>
       <c r="I12">
+        <v>1.000837139764808</v>
+      </c>
+      <c r="J12">
         <v>1.000313923165885</v>
-      </c>
-      <c r="J12">
-        <v>0.9987442807092567</v>
       </c>
       <c r="K12">
         <v>1.000313923165885</v>
@@ -1286,7 +1238,7 @@
         <v>0.9999720910551351</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,28 +1246,28 @@
         <v>11</v>
       </c>
       <c r="C13">
+        <v>0.9996777471256533</v>
+      </c>
+      <c r="D13">
         <v>1.000080556694701</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>0.9996777471256533</v>
-      </c>
-      <c r="E13">
-        <v>1.000080556694701</v>
       </c>
       <c r="F13">
         <v>1.000080556694701</v>
       </c>
       <c r="G13">
-        <v>1.000214833475117</v>
+        <v>1.000080556694701</v>
       </c>
       <c r="H13">
         <v>0.9998227609416107</v>
       </c>
       <c r="I13">
+        <v>1.000214833475117</v>
+      </c>
+      <c r="J13">
         <v>1.000080556694701</v>
-      </c>
-      <c r="J13">
-        <v>0.9996777471256533</v>
       </c>
       <c r="K13">
         <v>1.000080556694701</v>
@@ -1348,7 +1300,7 @@
         <v>0.9999928352710805</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,28 +1308,28 @@
         <v>12</v>
       </c>
       <c r="C14">
+        <v>0.9970390191027829</v>
+      </c>
+      <c r="D14">
         <v>1.000740231517839</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>0.9970390191027829</v>
-      </c>
-      <c r="E14">
-        <v>1.000740231517839</v>
       </c>
       <c r="F14">
         <v>1.000740231517839</v>
       </c>
       <c r="G14">
-        <v>1.001973980505824</v>
+        <v>1.000740231517839</v>
       </c>
       <c r="H14">
         <v>0.9983714688877133</v>
       </c>
       <c r="I14">
+        <v>1.001973980505824</v>
+      </c>
+      <c r="J14">
         <v>1.000740231517839</v>
-      </c>
-      <c r="J14">
-        <v>0.9970390191027829</v>
       </c>
       <c r="K14">
         <v>1.000740231517839</v>
@@ -1410,7 +1362,7 @@
         <v>0.9999341938416396</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,28 +1370,28 @@
         <v>13</v>
       </c>
       <c r="C15">
+        <v>0.9992335485138972</v>
+      </c>
+      <c r="D15">
         <v>1.000191609808738</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>0.9992335485138972</v>
-      </c>
-      <c r="E15">
-        <v>1.000191609808738</v>
       </c>
       <c r="F15">
         <v>1.000191609808738</v>
       </c>
       <c r="G15">
+        <v>1.000191609808738</v>
+      </c>
+      <c r="H15">
+        <v>0.9995784494664681</v>
+      </c>
+      <c r="I15">
         <v>1.000510962408722</v>
       </c>
-      <c r="H15">
-        <v>0.9995784494664682</v>
-      </c>
-      <c r="I15">
+      <c r="J15">
         <v>1.000191609808738</v>
-      </c>
-      <c r="J15">
-        <v>0.9992335485138972</v>
       </c>
       <c r="K15">
         <v>1.000191609808738</v>
@@ -1454,7 +1406,7 @@
         <v>0.9997125791613178</v>
       </c>
       <c r="O15">
-        <v>0.9996678692630346</v>
+        <v>0.9996678692630345</v>
       </c>
       <c r="P15">
         <v>0.9998722560437914</v>
@@ -1472,7 +1424,7 @@
         <v>0.9999829649692171</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.999999727622689</v>
+        <v>1.005097787212923</v>
       </c>
       <c r="D16">
-        <v>1.000001079611685</v>
+        <v>0.9987255496599942</v>
       </c>
       <c r="E16">
-        <v>0.999999727622689</v>
+        <v>1.005097787212923</v>
       </c>
       <c r="F16">
-        <v>0.999999727622689</v>
+        <v>0.9987255496599942</v>
       </c>
       <c r="G16">
-        <v>0.9999992795846588</v>
+        <v>0.9987255496599942</v>
       </c>
       <c r="H16">
-        <v>1.000000592539203</v>
+        <v>1.00280377576233</v>
       </c>
       <c r="I16">
-        <v>0.999999727622689</v>
+        <v>0.9966014764646669</v>
       </c>
       <c r="J16">
-        <v>1.000001079611685</v>
+        <v>0.9987255496599942</v>
       </c>
       <c r="K16">
-        <v>0.999999727622689</v>
+        <v>0.9987255496599942</v>
       </c>
       <c r="L16">
-        <v>0.999999727622689</v>
+        <v>0.9987255496599942</v>
       </c>
       <c r="M16">
-        <v>1.000000403617187</v>
+        <v>1.001911668436459</v>
       </c>
       <c r="N16">
-        <v>1.000000403617187</v>
+        <v>1.001911668436459</v>
       </c>
       <c r="O16">
-        <v>1.000000466591192</v>
+        <v>1.002209037545083</v>
       </c>
       <c r="P16">
-        <v>1.000000178285688</v>
+        <v>1.000849628844304</v>
       </c>
       <c r="Q16">
-        <v>1.000000178285688</v>
+        <v>1.000849628844304</v>
       </c>
       <c r="R16">
-        <v>1.000000065619938</v>
+        <v>1.000318609048226</v>
       </c>
       <c r="S16">
-        <v>1.000000065619938</v>
+        <v>1.000318609048226</v>
       </c>
       <c r="T16">
-        <v>1.000000022433936</v>
+        <v>1.000113281403317</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9999942822547846</v>
+        <v>1.004168461988193</v>
       </c>
       <c r="D17">
-        <v>1.000022860390393</v>
+        <v>0.9989578813157612</v>
       </c>
       <c r="E17">
-        <v>0.9999942822547846</v>
+        <v>1.004168461988193</v>
       </c>
       <c r="F17">
-        <v>0.9999942822547846</v>
+        <v>0.9989578813157612</v>
       </c>
       <c r="G17">
-        <v>0.9999847593117226</v>
+        <v>0.9989578813157612</v>
       </c>
       <c r="H17">
-        <v>1.0000125715139</v>
+        <v>1.002292648787026</v>
       </c>
       <c r="I17">
-        <v>0.9999942822547846</v>
+        <v>0.997221025856653</v>
       </c>
       <c r="J17">
-        <v>1.000022860390393</v>
+        <v>0.9989578813157612</v>
       </c>
       <c r="K17">
-        <v>0.9999942822547846</v>
+        <v>0.9989578813157612</v>
       </c>
       <c r="L17">
-        <v>0.9999942822547846</v>
+        <v>0.9989578813157612</v>
       </c>
       <c r="M17">
-        <v>1.000008571322589</v>
+        <v>1.001563171651977</v>
       </c>
       <c r="N17">
-        <v>1.000008571322589</v>
+        <v>1.001563171651977</v>
       </c>
       <c r="O17">
-        <v>1.000009904719692</v>
+        <v>1.001806330696993</v>
       </c>
       <c r="P17">
-        <v>1.000003808299987</v>
+        <v>1.000694741539905</v>
       </c>
       <c r="Q17">
-        <v>1.000003808299987</v>
+        <v>1.000694741539905</v>
       </c>
       <c r="R17">
-        <v>1.000001426788687</v>
+        <v>1.000260526483869</v>
       </c>
       <c r="S17">
-        <v>1.000001426788687</v>
+        <v>1.000260526483869</v>
       </c>
       <c r="T17">
-        <v>1.000000506330062</v>
+        <v>1.000092630096526</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9999798765436096</v>
+        <v>1.002294025908786</v>
       </c>
       <c r="D18">
-        <v>1.000080486315863</v>
+        <v>0.9994264917522137</v>
       </c>
       <c r="E18">
-        <v>0.9999798765436096</v>
+        <v>1.002294025908786</v>
       </c>
       <c r="F18">
-        <v>0.9999798765436096</v>
+        <v>0.9994264917522137</v>
       </c>
       <c r="G18">
-        <v>0.9999463447508222</v>
+        <v>0.9994264917522137</v>
       </c>
       <c r="H18">
-        <v>1.000044262496521</v>
+        <v>1.001261710826346</v>
       </c>
       <c r="I18">
-        <v>0.9999798765436096</v>
+        <v>0.9984706496319896</v>
       </c>
       <c r="J18">
-        <v>1.000080486315863</v>
+        <v>0.9994264917522137</v>
       </c>
       <c r="K18">
-        <v>0.9999798765436096</v>
+        <v>0.9994264917522137</v>
       </c>
       <c r="L18">
-        <v>0.9999798765436096</v>
+        <v>0.9994264917522137</v>
       </c>
       <c r="M18">
-        <v>1.000030181429737</v>
+        <v>1.0008602588305</v>
       </c>
       <c r="N18">
-        <v>1.000030181429737</v>
+        <v>1.0008602588305</v>
       </c>
       <c r="O18">
-        <v>1.000034875118665</v>
+        <v>1.000994076162449</v>
       </c>
       <c r="P18">
-        <v>1.000013413134361</v>
+        <v>1.000382336471071</v>
       </c>
       <c r="Q18">
-        <v>1.000013413134361</v>
+        <v>1.000382336471071</v>
       </c>
       <c r="R18">
-        <v>1.000005028986673</v>
+        <v>1.000143375291357</v>
       </c>
       <c r="S18">
-        <v>1.000005028986673</v>
+        <v>1.000143375291357</v>
       </c>
       <c r="T18">
-        <v>1.000001787199006</v>
+        <v>1.000050976937294</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>1.002501008171121</v>
+      </c>
+      <c r="D19">
+        <v>0.9993747421608823</v>
+      </c>
+      <c r="E19">
+        <v>1.002501008171121</v>
+      </c>
+      <c r="F19">
+        <v>0.9993747421608823</v>
+      </c>
+      <c r="G19">
+        <v>0.9993747421608823</v>
+      </c>
+      <c r="H19">
+        <v>1.001375555419878</v>
+      </c>
+      <c r="I19">
+        <v>0.9983326561189785</v>
+      </c>
+      <c r="J19">
+        <v>0.9993747421608823</v>
+      </c>
+      <c r="K19">
+        <v>0.9993747421608823</v>
+      </c>
+      <c r="L19">
+        <v>0.9993747421608823</v>
+      </c>
+      <c r="M19">
+        <v>1.000937875166002</v>
+      </c>
+      <c r="N19">
+        <v>1.000937875166002</v>
+      </c>
+      <c r="O19">
+        <v>1.001083768583961</v>
+      </c>
+      <c r="P19">
+        <v>1.000416830830962</v>
+      </c>
+      <c r="Q19">
+        <v>1.000416830830962</v>
+      </c>
+      <c r="R19">
+        <v>1.000156308663442</v>
+      </c>
+      <c r="S19">
+        <v>1.000156308663442</v>
+      </c>
+      <c r="T19">
+        <v>1.000055574365438</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.000001079611685</v>
+      </c>
+      <c r="D20">
+        <v>0.999999727622689</v>
+      </c>
+      <c r="E20">
+        <v>1.000001079611685</v>
+      </c>
+      <c r="F20">
+        <v>0.999999727622689</v>
+      </c>
+      <c r="G20">
+        <v>0.999999727622689</v>
+      </c>
+      <c r="H20">
+        <v>1.000000592539203</v>
+      </c>
+      <c r="I20">
+        <v>0.9999992795846588</v>
+      </c>
+      <c r="J20">
+        <v>0.999999727622689</v>
+      </c>
+      <c r="K20">
+        <v>0.999999727622689</v>
+      </c>
+      <c r="L20">
+        <v>0.999999727622689</v>
+      </c>
+      <c r="M20">
+        <v>1.000000403617187</v>
+      </c>
+      <c r="N20">
+        <v>1.000000403617187</v>
+      </c>
+      <c r="O20">
+        <v>1.000000466591192</v>
+      </c>
+      <c r="P20">
+        <v>1.000000178285688</v>
+      </c>
+      <c r="Q20">
+        <v>1.000000178285688</v>
+      </c>
+      <c r="R20">
+        <v>1.000000065619938</v>
+      </c>
+      <c r="S20">
+        <v>1.000000065619938</v>
+      </c>
+      <c r="T20">
+        <v>1.000000022433936</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.000022860390393</v>
+      </c>
+      <c r="D21">
+        <v>0.9999942822547845</v>
+      </c>
+      <c r="E21">
+        <v>1.000022860390393</v>
+      </c>
+      <c r="F21">
+        <v>0.9999942822547845</v>
+      </c>
+      <c r="G21">
+        <v>0.9999942822547845</v>
+      </c>
+      <c r="H21">
+        <v>1.0000125715139</v>
+      </c>
+      <c r="I21">
+        <v>0.9999847593117226</v>
+      </c>
+      <c r="J21">
+        <v>0.9999942822547845</v>
+      </c>
+      <c r="K21">
+        <v>0.9999942822547845</v>
+      </c>
+      <c r="L21">
+        <v>0.9999942822547845</v>
+      </c>
+      <c r="M21">
+        <v>1.000008571322589</v>
+      </c>
+      <c r="N21">
+        <v>1.000008571322589</v>
+      </c>
+      <c r="O21">
+        <v>1.000009904719692</v>
+      </c>
+      <c r="P21">
+        <v>1.000003808299987</v>
+      </c>
+      <c r="Q21">
+        <v>1.000003808299987</v>
+      </c>
+      <c r="R21">
+        <v>1.000001426788687</v>
+      </c>
+      <c r="S21">
+        <v>1.000001426788687</v>
+      </c>
+      <c r="T21">
+        <v>1.000000506330061</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.000080486315863</v>
+      </c>
+      <c r="D22">
+        <v>0.9999798765436096</v>
+      </c>
+      <c r="E22">
+        <v>1.000080486315863</v>
+      </c>
+      <c r="F22">
+        <v>0.9999798765436096</v>
+      </c>
+      <c r="G22">
+        <v>0.9999798765436096</v>
+      </c>
+      <c r="H22">
+        <v>1.000044262496521</v>
+      </c>
+      <c r="I22">
+        <v>0.9999463447508222</v>
+      </c>
+      <c r="J22">
+        <v>0.9999798765436096</v>
+      </c>
+      <c r="K22">
+        <v>0.9999798765436096</v>
+      </c>
+      <c r="L22">
+        <v>0.9999798765436096</v>
+      </c>
+      <c r="M22">
+        <v>1.000030181429737</v>
+      </c>
+      <c r="N22">
+        <v>1.000030181429737</v>
+      </c>
+      <c r="O22">
+        <v>1.000034875118665</v>
+      </c>
+      <c r="P22">
+        <v>1.000013413134361</v>
+      </c>
+      <c r="Q22">
+        <v>1.000013413134361</v>
+      </c>
+      <c r="R22">
+        <v>1.000005028986673</v>
+      </c>
+      <c r="S22">
+        <v>1.000005028986673</v>
+      </c>
+      <c r="T22">
+        <v>1.000001787199006</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.000188554038776</v>
+      </c>
+      <c r="D23">
         <v>0.9999528625992226</v>
       </c>
-      <c r="D19">
+      <c r="E23">
         <v>1.000188554038776</v>
       </c>
-      <c r="E19">
+      <c r="F23">
         <v>0.9999528625992226</v>
       </c>
-      <c r="F19">
+      <c r="G23">
         <v>0.9999528625992226</v>
       </c>
-      <c r="G19">
+      <c r="H23">
+        <v>1.000103699572714</v>
+      </c>
+      <c r="I23">
         <v>0.9998742982819733</v>
       </c>
-      <c r="H19">
-        <v>1.000103699572714</v>
-      </c>
-      <c r="I19">
+      <c r="J23">
         <v>0.9999528625992226</v>
       </c>
-      <c r="J19">
-        <v>1.000188554038776</v>
-      </c>
-      <c r="K19">
+      <c r="K23">
         <v>0.9999528625992226</v>
       </c>
-      <c r="L19">
+      <c r="L23">
         <v>0.9999528625992226</v>
       </c>
-      <c r="M19">
+      <c r="M23">
         <v>1.000070708318999</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>1.000070708318999</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>1.000081705403571</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>1.000031426412407</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>1.000031426412407</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>1.000011785459111</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>1.000011785459111</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>1.000004189948522</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/ShearF-HW50.xlsx
+++ b/JupyterNotebooks/AvgHW/ShearF-HW50.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[2, 0, 0]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.000261405711216</v>
+        <v>1.002682605201731</v>
       </c>
       <c r="D3">
-        <v>0.9999346459020385</v>
+        <v>0.9993293461599416</v>
       </c>
       <c r="E3">
-        <v>1.000261405711216</v>
+        <v>1.002682605201731</v>
       </c>
       <c r="F3">
-        <v>0.9999346459020385</v>
+        <v>0.9993293461599416</v>
       </c>
       <c r="G3">
-        <v>0.9999346459020385</v>
+        <v>0.9993293461599416</v>
       </c>
       <c r="H3">
-        <v>1.000143771385049</v>
+        <v>1.00147543080692</v>
       </c>
       <c r="I3">
-        <v>0.9998257291731821</v>
+        <v>0.9982115958933723</v>
       </c>
       <c r="J3">
-        <v>0.9999346459020385</v>
+        <v>0.9993293461599416</v>
       </c>
       <c r="K3">
-        <v>0.9999346459020385</v>
+        <v>0.9993293461599416</v>
       </c>
       <c r="L3">
-        <v>0.9999346459020385</v>
+        <v>0.9993293461599416</v>
       </c>
       <c r="M3">
-        <v>1.000098025806627</v>
+        <v>1.001005975680836</v>
       </c>
       <c r="N3">
-        <v>1.000098025806627</v>
+        <v>1.001005975680836</v>
       </c>
       <c r="O3">
-        <v>1.000113274332768</v>
+        <v>1.001162460722864</v>
       </c>
       <c r="P3">
-        <v>1.000043565838431</v>
+        <v>1.000447099173871</v>
       </c>
       <c r="Q3">
-        <v>1.000043565838431</v>
+        <v>1.000447099173871</v>
       </c>
       <c r="R3">
-        <v>1.000016335854333</v>
+        <v>1.000167660920389</v>
       </c>
       <c r="S3">
-        <v>1.000016335854333</v>
+        <v>1.000167660920389</v>
       </c>
       <c r="T3">
-        <v>1.00000580732926</v>
+        <v>1.000059611730308</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.000504638976168</v>
+        <v>1.002476520031691</v>
       </c>
       <c r="D4">
-        <v>0.9998738381124863</v>
+        <v>0.9993808674878933</v>
       </c>
       <c r="E4">
-        <v>1.000504638976168</v>
+        <v>1.002476520031691</v>
       </c>
       <c r="F4">
-        <v>0.9998738381124863</v>
+        <v>0.9993808674878933</v>
       </c>
       <c r="G4">
-        <v>0.9998738381124863</v>
+        <v>0.9993808674878933</v>
       </c>
       <c r="H4">
-        <v>1.000277550320195</v>
+        <v>1.001362084266685</v>
       </c>
       <c r="I4">
-        <v>0.9996635714710189</v>
+        <v>0.9983489858078685</v>
       </c>
       <c r="J4">
-        <v>0.9998738381124863</v>
+        <v>0.9993808674878933</v>
       </c>
       <c r="K4">
-        <v>0.9998738381124863</v>
+        <v>0.9993808674878933</v>
       </c>
       <c r="L4">
-        <v>0.9998738381124863</v>
+        <v>0.9993808674878933</v>
       </c>
       <c r="M4">
-        <v>1.000189238544327</v>
+        <v>1.000928693759792</v>
       </c>
       <c r="N4">
-        <v>1.000189238544327</v>
+        <v>1.000928693759792</v>
       </c>
       <c r="O4">
-        <v>1.00021867580295</v>
+        <v>1.00107315726209</v>
       </c>
       <c r="P4">
-        <v>1.000084105067047</v>
+        <v>1.000412751669159</v>
       </c>
       <c r="Q4">
-        <v>1.000084105067047</v>
+        <v>1.000412751669159</v>
       </c>
       <c r="R4">
-        <v>1.000031538328407</v>
+        <v>1.000154780623843</v>
       </c>
       <c r="S4">
-        <v>1.000031538328407</v>
+        <v>1.000154780623843</v>
       </c>
       <c r="T4">
-        <v>1.000011212517473</v>
+        <v>1.000055032094987</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.00096708360052</v>
+        <v>1.003072133072774</v>
       </c>
       <c r="D5">
-        <v>0.9997582274323231</v>
+        <v>0.9992319645822118</v>
       </c>
       <c r="E5">
-        <v>1.00096708360052</v>
+        <v>1.003072133072774</v>
       </c>
       <c r="F5">
-        <v>0.9997582274323231</v>
+        <v>0.9992319645822118</v>
       </c>
       <c r="G5">
-        <v>0.9997582274323231</v>
+        <v>0.9992319645822118</v>
       </c>
       <c r="H5">
-        <v>1.000531893966553</v>
+        <v>1.001689670080863</v>
       </c>
       <c r="I5">
-        <v>0.9993552796067325</v>
+        <v>0.997951908975743</v>
       </c>
       <c r="J5">
-        <v>0.9997582274323231</v>
+        <v>0.9992319645822118</v>
       </c>
       <c r="K5">
-        <v>0.9997582274323231</v>
+        <v>0.9992319645822118</v>
       </c>
       <c r="L5">
-        <v>0.9997582274323231</v>
+        <v>0.9992319645822118</v>
       </c>
       <c r="M5">
-        <v>1.000362655516422</v>
+        <v>1.001152048827493</v>
       </c>
       <c r="N5">
-        <v>1.000362655516422</v>
+        <v>1.001152048827493</v>
       </c>
       <c r="O5">
-        <v>1.000419068333132</v>
+        <v>1.00133125591195</v>
       </c>
       <c r="P5">
-        <v>1.000161179488389</v>
+        <v>1.000512020745733</v>
       </c>
       <c r="Q5">
-        <v>1.000161179488389</v>
+        <v>1.000512020745733</v>
       </c>
       <c r="R5">
-        <v>1.000060441474372</v>
+        <v>1.000192006704852</v>
       </c>
       <c r="S5">
-        <v>1.000060441474372</v>
+        <v>1.000192006704852</v>
       </c>
       <c r="T5">
-        <v>1.000021489911796</v>
+        <v>1.000068267646003</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.001418396481083</v>
+        <v>1.003433639147728</v>
       </c>
       <c r="D6">
-        <v>0.9996453997972402</v>
+        <v>0.9991415886931819</v>
       </c>
       <c r="E6">
-        <v>1.001418396481083</v>
+        <v>1.003433639147728</v>
       </c>
       <c r="F6">
-        <v>0.9996453997972402</v>
+        <v>0.9991415886931819</v>
       </c>
       <c r="G6">
-        <v>0.9996453997972402</v>
+        <v>0.9991415886931819</v>
       </c>
       <c r="H6">
-        <v>1.000780107630316</v>
+        <v>1.001888494375001</v>
       </c>
       <c r="I6">
-        <v>0.9990544008062195</v>
+        <v>0.9977109065909101</v>
       </c>
       <c r="J6">
-        <v>0.9996453997972402</v>
+        <v>0.9991415886931819</v>
       </c>
       <c r="K6">
-        <v>0.9996453997972402</v>
+        <v>0.9991415886931819</v>
       </c>
       <c r="L6">
-        <v>0.9996453997972402</v>
+        <v>0.9991415886931819</v>
       </c>
       <c r="M6">
-        <v>1.000531898139162</v>
+        <v>1.001287613920455</v>
       </c>
       <c r="N6">
-        <v>1.000531898139162</v>
+        <v>1.001287613920455</v>
       </c>
       <c r="O6">
-        <v>1.000614634636213</v>
+        <v>1.001487907405304</v>
       </c>
       <c r="P6">
-        <v>1.000236398691855</v>
+        <v>1.000572272178031</v>
       </c>
       <c r="Q6">
-        <v>1.000236398691855</v>
+        <v>1.000572272178031</v>
       </c>
       <c r="R6">
-        <v>1.000088648968201</v>
+        <v>1.000214601306818</v>
       </c>
       <c r="S6">
-        <v>1.000088648968201</v>
+        <v>1.000214601306818</v>
       </c>
       <c r="T6">
-        <v>1.00003151738489</v>
+        <v>1.000076301032198</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000017132146924</v>
+        <v>0.9975231706714509</v>
       </c>
       <c r="D7">
-        <v>0.9999957145475029</v>
+        <v>1.00061919746022</v>
       </c>
       <c r="E7">
-        <v>1.000017132146924</v>
+        <v>0.9975231706714509</v>
       </c>
       <c r="F7">
-        <v>0.9999957145475029</v>
+        <v>1.00061919746022</v>
       </c>
       <c r="G7">
-        <v>0.9999957145475029</v>
+        <v>1.00061919746022</v>
       </c>
       <c r="H7">
-        <v>1.000009421414056</v>
+        <v>0.998637747709061</v>
       </c>
       <c r="I7">
-        <v>0.9999885779639821</v>
+        <v>1.001651220826517</v>
       </c>
       <c r="J7">
-        <v>0.9999957145475029</v>
+        <v>1.00061919746022</v>
       </c>
       <c r="K7">
-        <v>0.9999957145475029</v>
+        <v>1.00061919746022</v>
       </c>
       <c r="L7">
-        <v>0.9999957145475029</v>
+        <v>1.00061919746022</v>
       </c>
       <c r="M7">
-        <v>1.000006423347214</v>
+        <v>0.9990711840658354</v>
       </c>
       <c r="N7">
-        <v>1.000006423347214</v>
+        <v>0.9990711840658354</v>
       </c>
       <c r="O7">
-        <v>1.000007422702828</v>
+        <v>0.998926705280244</v>
       </c>
       <c r="P7">
-        <v>1.00000285374731</v>
+        <v>0.9995871885306302</v>
       </c>
       <c r="Q7">
-        <v>1.00000285374731</v>
+        <v>0.9995871885306302</v>
       </c>
       <c r="R7">
-        <v>1.000001068947358</v>
+        <v>0.9998451907630277</v>
       </c>
       <c r="S7">
-        <v>1.000001068947358</v>
+        <v>0.9998451907630277</v>
       </c>
       <c r="T7">
-        <v>1.000000379194579</v>
+        <v>0.9999449552646148</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000039883468302</v>
+        <v>0.9975845963308388</v>
       </c>
       <c r="D8">
-        <v>0.9999900267190296</v>
+        <v>1.000603841035816</v>
       </c>
       <c r="E8">
-        <v>1.000039883468302</v>
+        <v>0.9975845963308388</v>
       </c>
       <c r="F8">
-        <v>0.9999900267190296</v>
+        <v>1.000603841035816</v>
       </c>
       <c r="G8">
-        <v>0.9999900267190296</v>
+        <v>1.000603841035816</v>
       </c>
       <c r="H8">
-        <v>1.000021934678361</v>
+        <v>0.9986715319042414</v>
       </c>
       <c r="I8">
-        <v>0.9999734106279775</v>
+        <v>1.00161027037485</v>
       </c>
       <c r="J8">
-        <v>0.9999900267190296</v>
+        <v>1.000603841035816</v>
       </c>
       <c r="K8">
-        <v>0.9999900267190296</v>
+        <v>1.000603841035816</v>
       </c>
       <c r="L8">
-        <v>0.9999900267190296</v>
+        <v>1.000603841035816</v>
       </c>
       <c r="M8">
-        <v>1.000014955093666</v>
+        <v>0.9990942186833276</v>
       </c>
       <c r="N8">
-        <v>1.000014955093666</v>
+        <v>0.9990942186833276</v>
       </c>
       <c r="O8">
-        <v>1.000017281621898</v>
+        <v>0.9989533230902988</v>
       </c>
       <c r="P8">
-        <v>1.000006645635454</v>
+        <v>0.9995974261341573</v>
       </c>
       <c r="Q8">
-        <v>1.000006645635454</v>
+        <v>0.9995974261341573</v>
       </c>
       <c r="R8">
-        <v>1.000002490906348</v>
+        <v>0.9998490298595719</v>
       </c>
       <c r="S8">
-        <v>1.000002490906348</v>
+        <v>0.9998490298595719</v>
       </c>
       <c r="T8">
-        <v>1.000000884821955</v>
+        <v>0.9999463202862299</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.00005312462476</v>
+        <v>0.9976434880731043</v>
       </c>
       <c r="D9">
-        <v>0.9999867165035378</v>
+        <v>1.000589118134497</v>
       </c>
       <c r="E9">
-        <v>1.00005312462476</v>
+        <v>0.9976434880731043</v>
       </c>
       <c r="F9">
-        <v>0.9999867165035378</v>
+        <v>1.000589118134497</v>
       </c>
       <c r="G9">
-        <v>0.9999867165035378</v>
+        <v>1.000589118134497</v>
       </c>
       <c r="H9">
-        <v>1.000029217134552</v>
+        <v>0.9987039223050237</v>
       </c>
       <c r="I9">
-        <v>0.9999645831053817</v>
+        <v>1.001571009265354</v>
       </c>
       <c r="J9">
-        <v>0.9999867165035378</v>
+        <v>1.000589118134497</v>
       </c>
       <c r="K9">
-        <v>0.9999867165035378</v>
+        <v>1.000589118134497</v>
       </c>
       <c r="L9">
-        <v>0.9999867165035378</v>
+        <v>1.000589118134497</v>
       </c>
       <c r="M9">
-        <v>1.000019920564149</v>
+        <v>0.9991163031038006</v>
       </c>
       <c r="N9">
-        <v>1.000019920564149</v>
+        <v>0.9991163031038006</v>
       </c>
       <c r="O9">
-        <v>1.00002301942095</v>
+        <v>0.9989788428375417</v>
       </c>
       <c r="P9">
-        <v>1.000008852543945</v>
+        <v>0.9996072414473661</v>
       </c>
       <c r="Q9">
-        <v>1.000008852543945</v>
+        <v>0.9996072414473661</v>
       </c>
       <c r="R9">
-        <v>1.000003318533843</v>
+        <v>0.9998527106191488</v>
       </c>
       <c r="S9">
-        <v>1.000003318533843</v>
+        <v>0.9998527106191488</v>
       </c>
       <c r="T9">
-        <v>1.000001179062551</v>
+        <v>0.999947629007829</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.00011720907637</v>
+        <v>0.9977235140148516</v>
       </c>
       <c r="D10">
-        <v>0.9999706952003459</v>
+        <v>1.000569111588389</v>
       </c>
       <c r="E10">
-        <v>1.00011720907637</v>
+        <v>0.9977235140148516</v>
       </c>
       <c r="F10">
-        <v>0.9999706952003459</v>
+        <v>1.000569111588389</v>
       </c>
       <c r="G10">
-        <v>0.9999706952003459</v>
+        <v>1.000569111588389</v>
       </c>
       <c r="H10">
-        <v>1.000064462919126</v>
+        <v>0.9987479364258488</v>
       </c>
       <c r="I10">
-        <v>0.9999218608965403</v>
+        <v>1.001517658751795</v>
       </c>
       <c r="J10">
-        <v>0.9999706952003459</v>
+        <v>1.000569111588389</v>
       </c>
       <c r="K10">
-        <v>0.9999706952003459</v>
+        <v>1.000569111588389</v>
       </c>
       <c r="L10">
-        <v>0.9999706952003459</v>
+        <v>1.000569111588389</v>
       </c>
       <c r="M10">
-        <v>1.000043952138358</v>
+        <v>0.9991463128016203</v>
       </c>
       <c r="N10">
-        <v>1.000043952138358</v>
+        <v>0.9991463128016203</v>
       </c>
       <c r="O10">
-        <v>1.000050789065281</v>
+        <v>0.9990135206763631</v>
       </c>
       <c r="P10">
-        <v>1.00001953315902</v>
+        <v>0.9996205790638765</v>
       </c>
       <c r="Q10">
-        <v>1.00001953315902</v>
+        <v>0.9996205790638765</v>
       </c>
       <c r="R10">
-        <v>1.000007323669352</v>
+        <v>0.9998577121950045</v>
       </c>
       <c r="S10">
-        <v>1.000007323669352</v>
+        <v>0.9998577121950045</v>
       </c>
       <c r="T10">
-        <v>1.000002603082179</v>
+        <v>0.999949407326277</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000186599095983</v>
+        <v>1.000270036324739</v>
       </c>
       <c r="D11">
-        <v>0.9999533474123841</v>
+        <v>0.999932488117655</v>
       </c>
       <c r="E11">
-        <v>1.000186599095983</v>
+        <v>1.000270036324739</v>
       </c>
       <c r="F11">
-        <v>0.9999533474123841</v>
+        <v>0.999932488117655</v>
       </c>
       <c r="G11">
-        <v>0.9999533474123841</v>
+        <v>0.999932488117655</v>
       </c>
       <c r="H11">
-        <v>1.000102627263866</v>
+        <v>1.000148518673758</v>
       </c>
       <c r="I11">
-        <v>0.9998755986670198</v>
+        <v>0.999819975158847</v>
       </c>
       <c r="J11">
-        <v>0.9999533474123841</v>
+        <v>0.999932488117655</v>
       </c>
       <c r="K11">
-        <v>0.9999533474123841</v>
+        <v>0.999932488117655</v>
       </c>
       <c r="L11">
-        <v>0.9999533474123841</v>
+        <v>0.999932488117655</v>
       </c>
       <c r="M11">
-        <v>1.000069973254183</v>
+        <v>1.000101262221197</v>
       </c>
       <c r="N11">
-        <v>1.000069973254183</v>
+        <v>1.000101262221197</v>
       </c>
       <c r="O11">
-        <v>1.000080857924078</v>
+        <v>1.000117014372051</v>
       </c>
       <c r="P11">
-        <v>1.000031097973584</v>
+        <v>1.000045004186683</v>
       </c>
       <c r="Q11">
-        <v>1.000031097973584</v>
+        <v>1.000045004186683</v>
       </c>
       <c r="R11">
-        <v>1.000011660333284</v>
+        <v>1.000016875169426</v>
       </c>
       <c r="S11">
-        <v>1.000011660333284</v>
+        <v>1.000016875169426</v>
       </c>
       <c r="T11">
-        <v>1.000004144544003</v>
+        <v>1.000005999085051</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9987442807092567</v>
+        <v>1.000113679188353</v>
       </c>
       <c r="D12">
-        <v>1.000313923165885</v>
+        <v>0.9999715777489631</v>
       </c>
       <c r="E12">
-        <v>0.9987442807092567</v>
+        <v>1.000113679188353</v>
       </c>
       <c r="F12">
-        <v>1.000313923165885</v>
+        <v>0.9999715777489631</v>
       </c>
       <c r="G12">
-        <v>1.000313923165885</v>
+        <v>0.9999715777489631</v>
       </c>
       <c r="H12">
-        <v>0.9993093563590919</v>
+        <v>1.000062522181003</v>
       </c>
       <c r="I12">
-        <v>1.000837139764808</v>
+        <v>0.9999242134129406</v>
       </c>
       <c r="J12">
-        <v>1.000313923165885</v>
+        <v>0.9999715777489631</v>
       </c>
       <c r="K12">
-        <v>1.000313923165885</v>
+        <v>0.9999715777489631</v>
       </c>
       <c r="L12">
-        <v>1.000313923165885</v>
+        <v>0.9999715777489631</v>
       </c>
       <c r="M12">
-        <v>0.9995291019375707</v>
+        <v>1.000042628468658</v>
       </c>
       <c r="N12">
-        <v>0.9995291019375707</v>
+        <v>1.000042628468658</v>
       </c>
       <c r="O12">
-        <v>0.9994558534114111</v>
+        <v>1.000049259706106</v>
       </c>
       <c r="P12">
-        <v>0.9997907090136753</v>
+        <v>1.000018944895426</v>
       </c>
       <c r="Q12">
-        <v>0.9997907090136753</v>
+        <v>1.000018944895426</v>
       </c>
       <c r="R12">
-        <v>0.9999215125517276</v>
+        <v>1.00000710310881</v>
       </c>
       <c r="S12">
-        <v>0.9999215125517276</v>
+        <v>1.00000710310881</v>
       </c>
       <c r="T12">
-        <v>0.9999720910551351</v>
+        <v>1.000002524671531</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9996777471256533</v>
+        <v>1.000362331210753</v>
       </c>
       <c r="D13">
-        <v>1.000080556694701</v>
+        <v>0.9999094121384343</v>
       </c>
       <c r="E13">
-        <v>0.9996777471256533</v>
+        <v>1.000362331210753</v>
       </c>
       <c r="F13">
-        <v>1.000080556694701</v>
+        <v>0.9999094121384343</v>
       </c>
       <c r="G13">
-        <v>1.000080556694701</v>
+        <v>0.9999094121384343</v>
       </c>
       <c r="H13">
-        <v>0.9998227609416107</v>
+        <v>1.000199281359696</v>
       </c>
       <c r="I13">
-        <v>1.000214833475117</v>
+        <v>0.9997584441736206</v>
       </c>
       <c r="J13">
-        <v>1.000080556694701</v>
+        <v>0.9999094121384343</v>
       </c>
       <c r="K13">
-        <v>1.000080556694701</v>
+        <v>0.9999094121384343</v>
       </c>
       <c r="L13">
-        <v>1.000080556694701</v>
+        <v>0.9999094121384343</v>
       </c>
       <c r="M13">
-        <v>0.9998791519101771</v>
+        <v>1.000135871674594</v>
       </c>
       <c r="N13">
-        <v>0.9998791519101771</v>
+        <v>1.000135871674594</v>
       </c>
       <c r="O13">
-        <v>0.9998603549206549</v>
+        <v>1.000157008236295</v>
       </c>
       <c r="P13">
-        <v>0.9999462868383517</v>
+        <v>1.000060385162541</v>
       </c>
       <c r="Q13">
-        <v>0.9999462868383517</v>
+        <v>1.000060385162541</v>
       </c>
       <c r="R13">
-        <v>0.999979854302439</v>
+        <v>1.000022641906514</v>
       </c>
       <c r="S13">
-        <v>0.999979854302439</v>
+        <v>1.000022641906514</v>
       </c>
       <c r="T13">
-        <v>0.9999928352710805</v>
+        <v>1.000008048859895</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9970390191027829</v>
+        <v>1.000727342157858</v>
       </c>
       <c r="D14">
-        <v>1.000740231517839</v>
+        <v>0.9998181607425308</v>
       </c>
       <c r="E14">
-        <v>0.9970390191027829</v>
+        <v>1.000727342157858</v>
       </c>
       <c r="F14">
-        <v>1.000740231517839</v>
+        <v>0.9998181607425308</v>
       </c>
       <c r="G14">
-        <v>1.000740231517839</v>
+        <v>0.9998181607425308</v>
       </c>
       <c r="H14">
-        <v>0.9983714688877133</v>
+        <v>1.000400030817361</v>
       </c>
       <c r="I14">
-        <v>1.001973980505824</v>
+        <v>0.9995151087674955</v>
       </c>
       <c r="J14">
-        <v>1.000740231517839</v>
+        <v>0.9998181607425308</v>
       </c>
       <c r="K14">
-        <v>1.000740231517839</v>
+        <v>0.9998181607425308</v>
       </c>
       <c r="L14">
-        <v>1.000740231517839</v>
+        <v>0.9998181607425308</v>
       </c>
       <c r="M14">
-        <v>0.9988896253103111</v>
+        <v>1.000272751450194</v>
       </c>
       <c r="N14">
-        <v>0.9988896253103111</v>
+        <v>1.000272751450194</v>
       </c>
       <c r="O14">
-        <v>0.9987169065027786</v>
+        <v>1.000315177905917</v>
       </c>
       <c r="P14">
-        <v>0.9995064940461539</v>
+        <v>1.000121221214306</v>
       </c>
       <c r="Q14">
-        <v>0.9995064940461539</v>
+        <v>1.000121221214306</v>
       </c>
       <c r="R14">
-        <v>0.9998149284140752</v>
+        <v>1.000045456096363</v>
       </c>
       <c r="S14">
-        <v>0.9998149284140752</v>
+        <v>1.000045456096363</v>
       </c>
       <c r="T14">
-        <v>0.9999341938416396</v>
+        <v>1.000016160661718</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9992335485138972</v>
+        <v>1.000261405711216</v>
       </c>
       <c r="D15">
-        <v>1.000191609808738</v>
+        <v>0.9999346459020385</v>
       </c>
       <c r="E15">
-        <v>0.9992335485138972</v>
+        <v>1.000261405711216</v>
       </c>
       <c r="F15">
-        <v>1.000191609808738</v>
+        <v>0.9999346459020385</v>
       </c>
       <c r="G15">
-        <v>1.000191609808738</v>
+        <v>0.9999346459020385</v>
       </c>
       <c r="H15">
-        <v>0.9995784494664681</v>
+        <v>1.000143771385049</v>
       </c>
       <c r="I15">
-        <v>1.000510962408722</v>
+        <v>0.9998257291731821</v>
       </c>
       <c r="J15">
-        <v>1.000191609808738</v>
+        <v>0.9999346459020385</v>
       </c>
       <c r="K15">
-        <v>1.000191609808738</v>
+        <v>0.9999346459020385</v>
       </c>
       <c r="L15">
-        <v>1.000191609808738</v>
+        <v>0.9999346459020385</v>
       </c>
       <c r="M15">
-        <v>0.9997125791613178</v>
+        <v>1.000098025806627</v>
       </c>
       <c r="N15">
-        <v>0.9997125791613178</v>
+        <v>1.000098025806627</v>
       </c>
       <c r="O15">
-        <v>0.9996678692630345</v>
+        <v>1.000113274332768</v>
       </c>
       <c r="P15">
-        <v>0.9998722560437914</v>
+        <v>1.000043565838431</v>
       </c>
       <c r="Q15">
-        <v>0.9998722560437914</v>
+        <v>1.000043565838431</v>
       </c>
       <c r="R15">
-        <v>0.9999520944850282</v>
+        <v>1.000016335854333</v>
       </c>
       <c r="S15">
-        <v>0.9999520944850282</v>
+        <v>1.000016335854333</v>
       </c>
       <c r="T15">
-        <v>0.9999829649692171</v>
+        <v>1.00000580732926</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.005097787212923</v>
+        <v>1.000504638976168</v>
       </c>
       <c r="D16">
-        <v>0.9987255496599942</v>
+        <v>0.9998738381124863</v>
       </c>
       <c r="E16">
-        <v>1.005097787212923</v>
+        <v>1.000504638976168</v>
       </c>
       <c r="F16">
-        <v>0.9987255496599942</v>
+        <v>0.9998738381124863</v>
       </c>
       <c r="G16">
-        <v>0.9987255496599942</v>
+        <v>0.9998738381124863</v>
       </c>
       <c r="H16">
-        <v>1.00280377576233</v>
+        <v>1.000277550320195</v>
       </c>
       <c r="I16">
-        <v>0.9966014764646669</v>
+        <v>0.9996635714710189</v>
       </c>
       <c r="J16">
-        <v>0.9987255496599942</v>
+        <v>0.9998738381124863</v>
       </c>
       <c r="K16">
-        <v>0.9987255496599942</v>
+        <v>0.9998738381124863</v>
       </c>
       <c r="L16">
-        <v>0.9987255496599942</v>
+        <v>0.9998738381124863</v>
       </c>
       <c r="M16">
-        <v>1.001911668436459</v>
+        <v>1.000189238544327</v>
       </c>
       <c r="N16">
-        <v>1.001911668436459</v>
+        <v>1.000189238544327</v>
       </c>
       <c r="O16">
-        <v>1.002209037545083</v>
+        <v>1.00021867580295</v>
       </c>
       <c r="P16">
-        <v>1.000849628844304</v>
+        <v>1.000084105067047</v>
       </c>
       <c r="Q16">
-        <v>1.000849628844304</v>
+        <v>1.000084105067047</v>
       </c>
       <c r="R16">
-        <v>1.000318609048226</v>
+        <v>1.000031538328407</v>
       </c>
       <c r="S16">
-        <v>1.000318609048226</v>
+        <v>1.000031538328407</v>
       </c>
       <c r="T16">
-        <v>1.000113281403317</v>
+        <v>1.000011212517473</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.004168461988193</v>
+        <v>1.00096708360052</v>
       </c>
       <c r="D17">
-        <v>0.9989578813157612</v>
+        <v>0.9997582274323231</v>
       </c>
       <c r="E17">
-        <v>1.004168461988193</v>
+        <v>1.00096708360052</v>
       </c>
       <c r="F17">
-        <v>0.9989578813157612</v>
+        <v>0.9997582274323231</v>
       </c>
       <c r="G17">
-        <v>0.9989578813157612</v>
+        <v>0.9997582274323231</v>
       </c>
       <c r="H17">
-        <v>1.002292648787026</v>
+        <v>1.000531893966553</v>
       </c>
       <c r="I17">
-        <v>0.997221025856653</v>
+        <v>0.9993552796067325</v>
       </c>
       <c r="J17">
-        <v>0.9989578813157612</v>
+        <v>0.9997582274323231</v>
       </c>
       <c r="K17">
-        <v>0.9989578813157612</v>
+        <v>0.9997582274323231</v>
       </c>
       <c r="L17">
-        <v>0.9989578813157612</v>
+        <v>0.9997582274323231</v>
       </c>
       <c r="M17">
-        <v>1.001563171651977</v>
+        <v>1.000362655516422</v>
       </c>
       <c r="N17">
-        <v>1.001563171651977</v>
+        <v>1.000362655516422</v>
       </c>
       <c r="O17">
-        <v>1.001806330696993</v>
+        <v>1.000419068333132</v>
       </c>
       <c r="P17">
-        <v>1.000694741539905</v>
+        <v>1.000161179488389</v>
       </c>
       <c r="Q17">
-        <v>1.000694741539905</v>
+        <v>1.000161179488389</v>
       </c>
       <c r="R17">
-        <v>1.000260526483869</v>
+        <v>1.000060441474372</v>
       </c>
       <c r="S17">
-        <v>1.000260526483869</v>
+        <v>1.000060441474372</v>
       </c>
       <c r="T17">
-        <v>1.000092630096526</v>
+        <v>1.000021489911796</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.002294025908786</v>
+        <v>1.001418396481083</v>
       </c>
       <c r="D18">
-        <v>0.9994264917522137</v>
+        <v>0.9996453997972402</v>
       </c>
       <c r="E18">
-        <v>1.002294025908786</v>
+        <v>1.001418396481083</v>
       </c>
       <c r="F18">
-        <v>0.9994264917522137</v>
+        <v>0.9996453997972402</v>
       </c>
       <c r="G18">
-        <v>0.9994264917522137</v>
+        <v>0.9996453997972402</v>
       </c>
       <c r="H18">
-        <v>1.001261710826346</v>
+        <v>1.000780107630316</v>
       </c>
       <c r="I18">
-        <v>0.9984706496319896</v>
+        <v>0.9990544008062195</v>
       </c>
       <c r="J18">
-        <v>0.9994264917522137</v>
+        <v>0.9996453997972402</v>
       </c>
       <c r="K18">
-        <v>0.9994264917522137</v>
+        <v>0.9996453997972402</v>
       </c>
       <c r="L18">
-        <v>0.9994264917522137</v>
+        <v>0.9996453997972402</v>
       </c>
       <c r="M18">
-        <v>1.0008602588305</v>
+        <v>1.000531898139162</v>
       </c>
       <c r="N18">
-        <v>1.0008602588305</v>
+        <v>1.000531898139162</v>
       </c>
       <c r="O18">
-        <v>1.000994076162449</v>
+        <v>1.000614634636213</v>
       </c>
       <c r="P18">
-        <v>1.000382336471071</v>
+        <v>1.000236398691855</v>
       </c>
       <c r="Q18">
-        <v>1.000382336471071</v>
+        <v>1.000236398691855</v>
       </c>
       <c r="R18">
-        <v>1.000143375291357</v>
+        <v>1.000088648968201</v>
       </c>
       <c r="S18">
-        <v>1.000143375291357</v>
+        <v>1.000088648968201</v>
       </c>
       <c r="T18">
-        <v>1.000050976937294</v>
+        <v>1.00003151738489</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.002501008171121</v>
+        <v>1.000017132146924</v>
       </c>
       <c r="D19">
-        <v>0.9993747421608823</v>
+        <v>0.9999957145475029</v>
       </c>
       <c r="E19">
-        <v>1.002501008171121</v>
+        <v>1.000017132146924</v>
       </c>
       <c r="F19">
-        <v>0.9993747421608823</v>
+        <v>0.9999957145475029</v>
       </c>
       <c r="G19">
-        <v>0.9993747421608823</v>
+        <v>0.9999957145475029</v>
       </c>
       <c r="H19">
-        <v>1.001375555419878</v>
+        <v>1.000009421414056</v>
       </c>
       <c r="I19">
-        <v>0.9983326561189785</v>
+        <v>0.9999885779639821</v>
       </c>
       <c r="J19">
-        <v>0.9993747421608823</v>
+        <v>0.9999957145475029</v>
       </c>
       <c r="K19">
-        <v>0.9993747421608823</v>
+        <v>0.9999957145475029</v>
       </c>
       <c r="L19">
-        <v>0.9993747421608823</v>
+        <v>0.9999957145475029</v>
       </c>
       <c r="M19">
-        <v>1.000937875166002</v>
+        <v>1.000006423347214</v>
       </c>
       <c r="N19">
-        <v>1.000937875166002</v>
+        <v>1.000006423347214</v>
       </c>
       <c r="O19">
-        <v>1.001083768583961</v>
+        <v>1.000007422702828</v>
       </c>
       <c r="P19">
-        <v>1.000416830830962</v>
+        <v>1.00000285374731</v>
       </c>
       <c r="Q19">
-        <v>1.000416830830962</v>
+        <v>1.00000285374731</v>
       </c>
       <c r="R19">
-        <v>1.000156308663442</v>
+        <v>1.000001068947358</v>
       </c>
       <c r="S19">
-        <v>1.000156308663442</v>
+        <v>1.000001068947358</v>
       </c>
       <c r="T19">
-        <v>1.000055574365438</v>
+        <v>1.000000379194579</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.000001079611685</v>
+        <v>1.000039883468302</v>
       </c>
       <c r="D20">
-        <v>0.999999727622689</v>
+        <v>0.9999900267190296</v>
       </c>
       <c r="E20">
-        <v>1.000001079611685</v>
+        <v>1.000039883468302</v>
       </c>
       <c r="F20">
-        <v>0.999999727622689</v>
+        <v>0.9999900267190296</v>
       </c>
       <c r="G20">
-        <v>0.999999727622689</v>
+        <v>0.9999900267190296</v>
       </c>
       <c r="H20">
-        <v>1.000000592539203</v>
+        <v>1.000021934678361</v>
       </c>
       <c r="I20">
-        <v>0.9999992795846588</v>
+        <v>0.9999734106279775</v>
       </c>
       <c r="J20">
-        <v>0.999999727622689</v>
+        <v>0.9999900267190296</v>
       </c>
       <c r="K20">
-        <v>0.999999727622689</v>
+        <v>0.9999900267190296</v>
       </c>
       <c r="L20">
-        <v>0.999999727622689</v>
+        <v>0.9999900267190296</v>
       </c>
       <c r="M20">
-        <v>1.000000403617187</v>
+        <v>1.000014955093666</v>
       </c>
       <c r="N20">
-        <v>1.000000403617187</v>
+        <v>1.000014955093666</v>
       </c>
       <c r="O20">
-        <v>1.000000466591192</v>
+        <v>1.000017281621898</v>
       </c>
       <c r="P20">
-        <v>1.000000178285688</v>
+        <v>1.000006645635454</v>
       </c>
       <c r="Q20">
-        <v>1.000000178285688</v>
+        <v>1.000006645635454</v>
       </c>
       <c r="R20">
-        <v>1.000000065619938</v>
+        <v>1.000002490906348</v>
       </c>
       <c r="S20">
-        <v>1.000000065619938</v>
+        <v>1.000002490906348</v>
       </c>
       <c r="T20">
-        <v>1.000000022433936</v>
+        <v>1.000000884821955</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.000022860390393</v>
+        <v>1.00005312462476</v>
       </c>
       <c r="D21">
-        <v>0.9999942822547845</v>
+        <v>0.9999867165035378</v>
       </c>
       <c r="E21">
-        <v>1.000022860390393</v>
+        <v>1.00005312462476</v>
       </c>
       <c r="F21">
-        <v>0.9999942822547845</v>
+        <v>0.9999867165035378</v>
       </c>
       <c r="G21">
-        <v>0.9999942822547845</v>
+        <v>0.9999867165035378</v>
       </c>
       <c r="H21">
-        <v>1.0000125715139</v>
+        <v>1.000029217134552</v>
       </c>
       <c r="I21">
-        <v>0.9999847593117226</v>
+        <v>0.9999645831053817</v>
       </c>
       <c r="J21">
-        <v>0.9999942822547845</v>
+        <v>0.9999867165035378</v>
       </c>
       <c r="K21">
-        <v>0.9999942822547845</v>
+        <v>0.9999867165035378</v>
       </c>
       <c r="L21">
-        <v>0.9999942822547845</v>
+        <v>0.9999867165035378</v>
       </c>
       <c r="M21">
-        <v>1.000008571322589</v>
+        <v>1.000019920564149</v>
       </c>
       <c r="N21">
-        <v>1.000008571322589</v>
+        <v>1.000019920564149</v>
       </c>
       <c r="O21">
-        <v>1.000009904719692</v>
+        <v>1.00002301942095</v>
       </c>
       <c r="P21">
-        <v>1.000003808299987</v>
+        <v>1.000008852543945</v>
       </c>
       <c r="Q21">
-        <v>1.000003808299987</v>
+        <v>1.000008852543945</v>
       </c>
       <c r="R21">
-        <v>1.000001426788687</v>
+        <v>1.000003318533843</v>
       </c>
       <c r="S21">
-        <v>1.000001426788687</v>
+        <v>1.000003318533843</v>
       </c>
       <c r="T21">
-        <v>1.000000506330061</v>
+        <v>1.000001179062551</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.000080486315863</v>
+        <v>1.00011720907637</v>
       </c>
       <c r="D22">
-        <v>0.9999798765436096</v>
+        <v>0.9999706952003459</v>
       </c>
       <c r="E22">
-        <v>1.000080486315863</v>
+        <v>1.00011720907637</v>
       </c>
       <c r="F22">
-        <v>0.9999798765436096</v>
+        <v>0.9999706952003459</v>
       </c>
       <c r="G22">
-        <v>0.9999798765436096</v>
+        <v>0.9999706952003459</v>
       </c>
       <c r="H22">
-        <v>1.000044262496521</v>
+        <v>1.000064462919126</v>
       </c>
       <c r="I22">
-        <v>0.9999463447508222</v>
+        <v>0.9999218608965403</v>
       </c>
       <c r="J22">
-        <v>0.9999798765436096</v>
+        <v>0.9999706952003459</v>
       </c>
       <c r="K22">
-        <v>0.9999798765436096</v>
+        <v>0.9999706952003459</v>
       </c>
       <c r="L22">
-        <v>0.9999798765436096</v>
+        <v>0.9999706952003459</v>
       </c>
       <c r="M22">
-        <v>1.000030181429737</v>
+        <v>1.000043952138358</v>
       </c>
       <c r="N22">
-        <v>1.000030181429737</v>
+        <v>1.000043952138358</v>
       </c>
       <c r="O22">
-        <v>1.000034875118665</v>
+        <v>1.000050789065281</v>
       </c>
       <c r="P22">
-        <v>1.000013413134361</v>
+        <v>1.00001953315902</v>
       </c>
       <c r="Q22">
-        <v>1.000013413134361</v>
+        <v>1.00001953315902</v>
       </c>
       <c r="R22">
-        <v>1.000005028986673</v>
+        <v>1.000007323669352</v>
       </c>
       <c r="S22">
-        <v>1.000005028986673</v>
+        <v>1.000007323669352</v>
       </c>
       <c r="T22">
-        <v>1.000001787199006</v>
+        <v>1.000002603082179</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1.000186599095983</v>
+      </c>
+      <c r="D23">
+        <v>0.9999533474123841</v>
+      </c>
+      <c r="E23">
+        <v>1.000186599095983</v>
+      </c>
+      <c r="F23">
+        <v>0.9999533474123841</v>
+      </c>
+      <c r="G23">
+        <v>0.9999533474123841</v>
+      </c>
+      <c r="H23">
+        <v>1.000102627263866</v>
+      </c>
+      <c r="I23">
+        <v>0.9998755986670198</v>
+      </c>
+      <c r="J23">
+        <v>0.9999533474123841</v>
+      </c>
+      <c r="K23">
+        <v>0.9999533474123841</v>
+      </c>
+      <c r="L23">
+        <v>0.9999533474123841</v>
+      </c>
+      <c r="M23">
+        <v>1.000069973254183</v>
+      </c>
+      <c r="N23">
+        <v>1.000069973254183</v>
+      </c>
+      <c r="O23">
+        <v>1.000080857924078</v>
+      </c>
+      <c r="P23">
+        <v>1.000031097973584</v>
+      </c>
+      <c r="Q23">
+        <v>1.000031097973584</v>
+      </c>
+      <c r="R23">
+        <v>1.000011660333284</v>
+      </c>
+      <c r="S23">
+        <v>1.000011660333284</v>
+      </c>
+      <c r="T23">
+        <v>1.000004144544003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9987442807092567</v>
+      </c>
+      <c r="D24">
+        <v>1.000313923165885</v>
+      </c>
+      <c r="E24">
+        <v>0.9987442807092567</v>
+      </c>
+      <c r="F24">
+        <v>1.000313923165885</v>
+      </c>
+      <c r="G24">
+        <v>1.000313923165885</v>
+      </c>
+      <c r="H24">
+        <v>0.9993093563590919</v>
+      </c>
+      <c r="I24">
+        <v>1.000837139764808</v>
+      </c>
+      <c r="J24">
+        <v>1.000313923165885</v>
+      </c>
+      <c r="K24">
+        <v>1.000313923165885</v>
+      </c>
+      <c r="L24">
+        <v>1.000313923165885</v>
+      </c>
+      <c r="M24">
+        <v>0.9995291019375707</v>
+      </c>
+      <c r="N24">
+        <v>0.9995291019375707</v>
+      </c>
+      <c r="O24">
+        <v>0.9994558534114111</v>
+      </c>
+      <c r="P24">
+        <v>0.9997907090136753</v>
+      </c>
+      <c r="Q24">
+        <v>0.9997907090136753</v>
+      </c>
+      <c r="R24">
+        <v>0.9999215125517276</v>
+      </c>
+      <c r="S24">
+        <v>0.9999215125517276</v>
+      </c>
+      <c r="T24">
+        <v>0.9999720910551351</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9996777471256533</v>
+      </c>
+      <c r="D25">
+        <v>1.000080556694701</v>
+      </c>
+      <c r="E25">
+        <v>0.9996777471256533</v>
+      </c>
+      <c r="F25">
+        <v>1.000080556694701</v>
+      </c>
+      <c r="G25">
+        <v>1.000080556694701</v>
+      </c>
+      <c r="H25">
+        <v>0.9998227609416107</v>
+      </c>
+      <c r="I25">
+        <v>1.000214833475117</v>
+      </c>
+      <c r="J25">
+        <v>1.000080556694701</v>
+      </c>
+      <c r="K25">
+        <v>1.000080556694701</v>
+      </c>
+      <c r="L25">
+        <v>1.000080556694701</v>
+      </c>
+      <c r="M25">
+        <v>0.9998791519101771</v>
+      </c>
+      <c r="N25">
+        <v>0.9998791519101771</v>
+      </c>
+      <c r="O25">
+        <v>0.9998603549206549</v>
+      </c>
+      <c r="P25">
+        <v>0.9999462868383517</v>
+      </c>
+      <c r="Q25">
+        <v>0.9999462868383517</v>
+      </c>
+      <c r="R25">
+        <v>0.999979854302439</v>
+      </c>
+      <c r="S25">
+        <v>0.999979854302439</v>
+      </c>
+      <c r="T25">
+        <v>0.9999928352710805</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9970390191027829</v>
+      </c>
+      <c r="D26">
+        <v>1.000740231517839</v>
+      </c>
+      <c r="E26">
+        <v>0.9970390191027829</v>
+      </c>
+      <c r="F26">
+        <v>1.000740231517839</v>
+      </c>
+      <c r="G26">
+        <v>1.000740231517839</v>
+      </c>
+      <c r="H26">
+        <v>0.9983714688877133</v>
+      </c>
+      <c r="I26">
+        <v>1.001973980505824</v>
+      </c>
+      <c r="J26">
+        <v>1.000740231517839</v>
+      </c>
+      <c r="K26">
+        <v>1.000740231517839</v>
+      </c>
+      <c r="L26">
+        <v>1.000740231517839</v>
+      </c>
+      <c r="M26">
+        <v>0.9988896253103111</v>
+      </c>
+      <c r="N26">
+        <v>0.9988896253103111</v>
+      </c>
+      <c r="O26">
+        <v>0.9987169065027786</v>
+      </c>
+      <c r="P26">
+        <v>0.9995064940461539</v>
+      </c>
+      <c r="Q26">
+        <v>0.9995064940461539</v>
+      </c>
+      <c r="R26">
+        <v>0.9998149284140752</v>
+      </c>
+      <c r="S26">
+        <v>0.9998149284140752</v>
+      </c>
+      <c r="T26">
+        <v>0.9999341938416396</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9992335485138972</v>
+      </c>
+      <c r="D27">
+        <v>1.000191609808738</v>
+      </c>
+      <c r="E27">
+        <v>0.9992335485138972</v>
+      </c>
+      <c r="F27">
+        <v>1.000191609808738</v>
+      </c>
+      <c r="G27">
+        <v>1.000191609808738</v>
+      </c>
+      <c r="H27">
+        <v>0.9995784494664681</v>
+      </c>
+      <c r="I27">
+        <v>1.000510962408722</v>
+      </c>
+      <c r="J27">
+        <v>1.000191609808738</v>
+      </c>
+      <c r="K27">
+        <v>1.000191609808738</v>
+      </c>
+      <c r="L27">
+        <v>1.000191609808738</v>
+      </c>
+      <c r="M27">
+        <v>0.9997125791613178</v>
+      </c>
+      <c r="N27">
+        <v>0.9997125791613178</v>
+      </c>
+      <c r="O27">
+        <v>0.9996678692630345</v>
+      </c>
+      <c r="P27">
+        <v>0.9998722560437914</v>
+      </c>
+      <c r="Q27">
+        <v>0.9998722560437914</v>
+      </c>
+      <c r="R27">
+        <v>0.9999520944850282</v>
+      </c>
+      <c r="S27">
+        <v>0.9999520944850282</v>
+      </c>
+      <c r="T27">
+        <v>0.9999829649692171</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.005097787212923</v>
+      </c>
+      <c r="D28">
+        <v>0.9987255496599942</v>
+      </c>
+      <c r="E28">
+        <v>1.005097787212923</v>
+      </c>
+      <c r="F28">
+        <v>0.9987255496599942</v>
+      </c>
+      <c r="G28">
+        <v>0.9987255496599942</v>
+      </c>
+      <c r="H28">
+        <v>1.00280377576233</v>
+      </c>
+      <c r="I28">
+        <v>0.9966014764646669</v>
+      </c>
+      <c r="J28">
+        <v>0.9987255496599942</v>
+      </c>
+      <c r="K28">
+        <v>0.9987255496599942</v>
+      </c>
+      <c r="L28">
+        <v>0.9987255496599942</v>
+      </c>
+      <c r="M28">
+        <v>1.001911668436459</v>
+      </c>
+      <c r="N28">
+        <v>1.001911668436459</v>
+      </c>
+      <c r="O28">
+        <v>1.002209037545083</v>
+      </c>
+      <c r="P28">
+        <v>1.000849628844304</v>
+      </c>
+      <c r="Q28">
+        <v>1.000849628844304</v>
+      </c>
+      <c r="R28">
+        <v>1.000318609048226</v>
+      </c>
+      <c r="S28">
+        <v>1.000318609048226</v>
+      </c>
+      <c r="T28">
+        <v>1.000113281403317</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.004168461988193</v>
+      </c>
+      <c r="D29">
+        <v>0.9989578813157612</v>
+      </c>
+      <c r="E29">
+        <v>1.004168461988193</v>
+      </c>
+      <c r="F29">
+        <v>0.9989578813157612</v>
+      </c>
+      <c r="G29">
+        <v>0.9989578813157612</v>
+      </c>
+      <c r="H29">
+        <v>1.002292648787026</v>
+      </c>
+      <c r="I29">
+        <v>0.997221025856653</v>
+      </c>
+      <c r="J29">
+        <v>0.9989578813157612</v>
+      </c>
+      <c r="K29">
+        <v>0.9989578813157612</v>
+      </c>
+      <c r="L29">
+        <v>0.9989578813157612</v>
+      </c>
+      <c r="M29">
+        <v>1.001563171651977</v>
+      </c>
+      <c r="N29">
+        <v>1.001563171651977</v>
+      </c>
+      <c r="O29">
+        <v>1.001806330696993</v>
+      </c>
+      <c r="P29">
+        <v>1.000694741539905</v>
+      </c>
+      <c r="Q29">
+        <v>1.000694741539905</v>
+      </c>
+      <c r="R29">
+        <v>1.000260526483869</v>
+      </c>
+      <c r="S29">
+        <v>1.000260526483869</v>
+      </c>
+      <c r="T29">
+        <v>1.000092630096526</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.002294025908786</v>
+      </c>
+      <c r="D30">
+        <v>0.9994264917522137</v>
+      </c>
+      <c r="E30">
+        <v>1.002294025908786</v>
+      </c>
+      <c r="F30">
+        <v>0.9994264917522137</v>
+      </c>
+      <c r="G30">
+        <v>0.9994264917522137</v>
+      </c>
+      <c r="H30">
+        <v>1.001261710826346</v>
+      </c>
+      <c r="I30">
+        <v>0.9984706496319896</v>
+      </c>
+      <c r="J30">
+        <v>0.9994264917522137</v>
+      </c>
+      <c r="K30">
+        <v>0.9994264917522137</v>
+      </c>
+      <c r="L30">
+        <v>0.9994264917522137</v>
+      </c>
+      <c r="M30">
+        <v>1.0008602588305</v>
+      </c>
+      <c r="N30">
+        <v>1.0008602588305</v>
+      </c>
+      <c r="O30">
+        <v>1.000994076162449</v>
+      </c>
+      <c r="P30">
+        <v>1.000382336471071</v>
+      </c>
+      <c r="Q30">
+        <v>1.000382336471071</v>
+      </c>
+      <c r="R30">
+        <v>1.000143375291357</v>
+      </c>
+      <c r="S30">
+        <v>1.000143375291357</v>
+      </c>
+      <c r="T30">
+        <v>1.000050976937294</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>1.002501008171121</v>
+      </c>
+      <c r="D31">
+        <v>0.9993747421608823</v>
+      </c>
+      <c r="E31">
+        <v>1.002501008171121</v>
+      </c>
+      <c r="F31">
+        <v>0.9993747421608823</v>
+      </c>
+      <c r="G31">
+        <v>0.9993747421608823</v>
+      </c>
+      <c r="H31">
+        <v>1.001375555419878</v>
+      </c>
+      <c r="I31">
+        <v>0.9983326561189785</v>
+      </c>
+      <c r="J31">
+        <v>0.9993747421608823</v>
+      </c>
+      <c r="K31">
+        <v>0.9993747421608823</v>
+      </c>
+      <c r="L31">
+        <v>0.9993747421608823</v>
+      </c>
+      <c r="M31">
+        <v>1.000937875166002</v>
+      </c>
+      <c r="N31">
+        <v>1.000937875166002</v>
+      </c>
+      <c r="O31">
+        <v>1.001083768583961</v>
+      </c>
+      <c r="P31">
+        <v>1.000416830830962</v>
+      </c>
+      <c r="Q31">
+        <v>1.000416830830962</v>
+      </c>
+      <c r="R31">
+        <v>1.000156308663442</v>
+      </c>
+      <c r="S31">
+        <v>1.000156308663442</v>
+      </c>
+      <c r="T31">
+        <v>1.000055574365438</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>1.005895405753425</v>
+      </c>
+      <c r="D32">
+        <v>0.9985261443835616</v>
+      </c>
+      <c r="E32">
+        <v>1.005895405753425</v>
+      </c>
+      <c r="F32">
+        <v>0.9985261443835616</v>
+      </c>
+      <c r="G32">
+        <v>0.9985261443835616</v>
+      </c>
+      <c r="H32">
+        <v>1.003242464246575</v>
+      </c>
+      <c r="I32">
+        <v>0.9960697315068493</v>
+      </c>
+      <c r="J32">
+        <v>0.9985261443835616</v>
+      </c>
+      <c r="K32">
+        <v>0.9985261443835616</v>
+      </c>
+      <c r="L32">
+        <v>0.9985261443835616</v>
+      </c>
+      <c r="M32">
+        <v>1.002210775068493</v>
+      </c>
+      <c r="N32">
+        <v>1.002210775068493</v>
+      </c>
+      <c r="O32">
+        <v>1.002554671461187</v>
+      </c>
+      <c r="P32">
+        <v>1.000982564840183</v>
+      </c>
+      <c r="Q32">
+        <v>1.000982564840183</v>
+      </c>
+      <c r="R32">
+        <v>1.000368459726027</v>
+      </c>
+      <c r="S32">
+        <v>1.000368459726027</v>
+      </c>
+      <c r="T32">
+        <v>1.000131005776256</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>0.9988886242105264</v>
+      </c>
+      <c r="D33">
+        <v>1.000277834210526</v>
+      </c>
+      <c r="E33">
+        <v>0.9988886242105264</v>
+      </c>
+      <c r="F33">
+        <v>1.000277834210526</v>
+      </c>
+      <c r="G33">
+        <v>1.000277834210526</v>
+      </c>
+      <c r="H33">
+        <v>0.9993887473684211</v>
+      </c>
+      <c r="I33">
+        <v>1.000740918421053</v>
+      </c>
+      <c r="J33">
+        <v>1.000277834210526</v>
+      </c>
+      <c r="K33">
+        <v>1.000277834210526</v>
+      </c>
+      <c r="L33">
+        <v>1.000277834210526</v>
+      </c>
+      <c r="M33">
+        <v>0.9995832292105263</v>
+      </c>
+      <c r="N33">
+        <v>0.9995832292105263</v>
+      </c>
+      <c r="O33">
+        <v>0.9995184019298247</v>
+      </c>
+      <c r="P33">
+        <v>0.9998147642105263</v>
+      </c>
+      <c r="Q33">
+        <v>0.9998147642105263</v>
+      </c>
+      <c r="R33">
+        <v>0.9999305317105263</v>
+      </c>
+      <c r="S33">
+        <v>0.9999305317105263</v>
+      </c>
+      <c r="T33">
+        <v>0.9999752987719298</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>0.9988886242105264</v>
+      </c>
+      <c r="D34">
+        <v>1.000277834210526</v>
+      </c>
+      <c r="E34">
+        <v>0.9988886242105264</v>
+      </c>
+      <c r="F34">
+        <v>1.000277834210526</v>
+      </c>
+      <c r="G34">
+        <v>1.000277834210526</v>
+      </c>
+      <c r="H34">
+        <v>0.9993887473684211</v>
+      </c>
+      <c r="I34">
+        <v>1.000740918421053</v>
+      </c>
+      <c r="J34">
+        <v>1.000277834210526</v>
+      </c>
+      <c r="K34">
+        <v>1.000277834210526</v>
+      </c>
+      <c r="L34">
+        <v>1.000277834210526</v>
+      </c>
+      <c r="M34">
+        <v>0.9995832292105263</v>
+      </c>
+      <c r="N34">
+        <v>0.9995832292105263</v>
+      </c>
+      <c r="O34">
+        <v>0.9995184019298247</v>
+      </c>
+      <c r="P34">
+        <v>0.9998147642105263</v>
+      </c>
+      <c r="Q34">
+        <v>0.9998147642105263</v>
+      </c>
+      <c r="R34">
+        <v>0.9999305317105263</v>
+      </c>
+      <c r="S34">
+        <v>0.9999305317105263</v>
+      </c>
+      <c r="T34">
+        <v>0.9999752987719298</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>1.009175295174311</v>
+      </c>
+      <c r="D35">
+        <v>0.9977061750085332</v>
+      </c>
+      <c r="E35">
+        <v>1.009175295174311</v>
+      </c>
+      <c r="F35">
+        <v>0.9977061750085332</v>
+      </c>
+      <c r="G35">
+        <v>0.9977061750085332</v>
+      </c>
+      <c r="H35">
+        <v>1.005046401469855</v>
+      </c>
+      <c r="I35">
+        <v>0.9938831411203861</v>
+      </c>
+      <c r="J35">
+        <v>0.9977061750085332</v>
+      </c>
+      <c r="K35">
+        <v>0.9977061750085332</v>
+      </c>
+      <c r="L35">
+        <v>0.9977061750085332</v>
+      </c>
+      <c r="M35">
+        <v>1.003440735091422</v>
+      </c>
+      <c r="N35">
+        <v>1.003440735091422</v>
+      </c>
+      <c r="O35">
+        <v>1.003975957217566</v>
+      </c>
+      <c r="P35">
+        <v>1.001529215063792</v>
+      </c>
+      <c r="Q35">
+        <v>1.001529215063792</v>
+      </c>
+      <c r="R35">
+        <v>1.000573455049978</v>
+      </c>
+      <c r="S35">
+        <v>1.000573455049978</v>
+      </c>
+      <c r="T35">
+        <v>1.000203893798359</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.000001079611685</v>
+      </c>
+      <c r="D36">
+        <v>0.999999727622689</v>
+      </c>
+      <c r="E36">
+        <v>1.000001079611685</v>
+      </c>
+      <c r="F36">
+        <v>0.999999727622689</v>
+      </c>
+      <c r="G36">
+        <v>0.999999727622689</v>
+      </c>
+      <c r="H36">
+        <v>1.000000592539203</v>
+      </c>
+      <c r="I36">
+        <v>0.9999992795846588</v>
+      </c>
+      <c r="J36">
+        <v>0.999999727622689</v>
+      </c>
+      <c r="K36">
+        <v>0.999999727622689</v>
+      </c>
+      <c r="L36">
+        <v>0.999999727622689</v>
+      </c>
+      <c r="M36">
+        <v>1.000000403617187</v>
+      </c>
+      <c r="N36">
+        <v>1.000000403617187</v>
+      </c>
+      <c r="O36">
+        <v>1.000000466591192</v>
+      </c>
+      <c r="P36">
+        <v>1.000000178285688</v>
+      </c>
+      <c r="Q36">
+        <v>1.000000178285688</v>
+      </c>
+      <c r="R36">
+        <v>1.000000065619938</v>
+      </c>
+      <c r="S36">
+        <v>1.000000065619938</v>
+      </c>
+      <c r="T36">
+        <v>1.000000022433936</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>1.000022860390393</v>
+      </c>
+      <c r="D37">
+        <v>0.9999942822547845</v>
+      </c>
+      <c r="E37">
+        <v>1.000022860390393</v>
+      </c>
+      <c r="F37">
+        <v>0.9999942822547845</v>
+      </c>
+      <c r="G37">
+        <v>0.9999942822547845</v>
+      </c>
+      <c r="H37">
+        <v>1.0000125715139</v>
+      </c>
+      <c r="I37">
+        <v>0.9999847593117226</v>
+      </c>
+      <c r="J37">
+        <v>0.9999942822547845</v>
+      </c>
+      <c r="K37">
+        <v>0.9999942822547845</v>
+      </c>
+      <c r="L37">
+        <v>0.9999942822547845</v>
+      </c>
+      <c r="M37">
+        <v>1.000008571322589</v>
+      </c>
+      <c r="N37">
+        <v>1.000008571322589</v>
+      </c>
+      <c r="O37">
+        <v>1.000009904719692</v>
+      </c>
+      <c r="P37">
+        <v>1.000003808299987</v>
+      </c>
+      <c r="Q37">
+        <v>1.000003808299987</v>
+      </c>
+      <c r="R37">
+        <v>1.000001426788687</v>
+      </c>
+      <c r="S37">
+        <v>1.000001426788687</v>
+      </c>
+      <c r="T37">
+        <v>1.000000506330061</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>1.000080486315863</v>
+      </c>
+      <c r="D38">
+        <v>0.9999798765436096</v>
+      </c>
+      <c r="E38">
+        <v>1.000080486315863</v>
+      </c>
+      <c r="F38">
+        <v>0.9999798765436096</v>
+      </c>
+      <c r="G38">
+        <v>0.9999798765436096</v>
+      </c>
+      <c r="H38">
+        <v>1.000044262496521</v>
+      </c>
+      <c r="I38">
+        <v>0.9999463447508222</v>
+      </c>
+      <c r="J38">
+        <v>0.9999798765436096</v>
+      </c>
+      <c r="K38">
+        <v>0.9999798765436096</v>
+      </c>
+      <c r="L38">
+        <v>0.9999798765436096</v>
+      </c>
+      <c r="M38">
+        <v>1.000030181429737</v>
+      </c>
+      <c r="N38">
+        <v>1.000030181429737</v>
+      </c>
+      <c r="O38">
+        <v>1.000034875118665</v>
+      </c>
+      <c r="P38">
+        <v>1.000013413134361</v>
+      </c>
+      <c r="Q38">
+        <v>1.000013413134361</v>
+      </c>
+      <c r="R38">
+        <v>1.000005028986673</v>
+      </c>
+      <c r="S38">
+        <v>1.000005028986673</v>
+      </c>
+      <c r="T38">
+        <v>1.000001787199006</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>1.000188554038776</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>0.9999528625992226</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>1.000188554038776</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>0.9999528625992226</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>0.9999528625992226</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>1.000103699572714</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.9998742982819733</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>0.9999528625992226</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>0.9999528625992226</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>0.9999528625992226</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>1.000070708318999</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>1.000070708318999</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>1.000081705403571</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>1.000031426412407</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>1.000031426412407</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>1.000011785459111</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>1.000011785459111</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>1.000004189948522</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>0.9994339536019146</v>
+      </c>
+      <c r="D40">
+        <v>1.000141507402168</v>
+      </c>
+      <c r="E40">
+        <v>0.9994339536019146</v>
+      </c>
+      <c r="F40">
+        <v>1.000141507402168</v>
+      </c>
+      <c r="G40">
+        <v>1.000141507402168</v>
+      </c>
+      <c r="H40">
+        <v>0.9996886734132122</v>
+      </c>
+      <c r="I40">
+        <v>1.000377364964442</v>
+      </c>
+      <c r="J40">
+        <v>1.000141507402168</v>
+      </c>
+      <c r="K40">
+        <v>1.000141507402168</v>
+      </c>
+      <c r="L40">
+        <v>1.000141507402168</v>
+      </c>
+      <c r="M40">
+        <v>0.9997877305020414</v>
+      </c>
+      <c r="N40">
+        <v>0.9997877305020414</v>
+      </c>
+      <c r="O40">
+        <v>0.9997547114724318</v>
+      </c>
+      <c r="P40">
+        <v>0.999905656135417</v>
+      </c>
+      <c r="Q40">
+        <v>0.999905656135417</v>
+      </c>
+      <c r="R40">
+        <v>0.9999646189521048</v>
+      </c>
+      <c r="S40">
+        <v>0.9999646189521048</v>
+      </c>
+      <c r="T40">
+        <v>0.9999874190310122</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>1.000135925914808</v>
+      </c>
+      <c r="D41">
+        <v>0.9999660169236322</v>
+      </c>
+      <c r="E41">
+        <v>1.000135925914808</v>
+      </c>
+      <c r="F41">
+        <v>0.9999660169236322</v>
+      </c>
+      <c r="G41">
+        <v>0.9999660169236322</v>
+      </c>
+      <c r="H41">
+        <v>1.000074756603089</v>
+      </c>
+      <c r="I41">
+        <v>0.9999093828820002</v>
+      </c>
+      <c r="J41">
+        <v>0.9999660169236322</v>
+      </c>
+      <c r="K41">
+        <v>0.9999660169236322</v>
+      </c>
+      <c r="L41">
+        <v>0.9999660169236322</v>
+      </c>
+      <c r="M41">
+        <v>1.00005097141922</v>
+      </c>
+      <c r="N41">
+        <v>1.00005097141922</v>
+      </c>
+      <c r="O41">
+        <v>1.000058899813843</v>
+      </c>
+      <c r="P41">
+        <v>1.000022653254024</v>
+      </c>
+      <c r="Q41">
+        <v>1.000022653254024</v>
+      </c>
+      <c r="R41">
+        <v>1.000008494171426</v>
+      </c>
+      <c r="S41">
+        <v>1.000008494171426</v>
+      </c>
+      <c r="T41">
+        <v>1.000003019361799</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>1.003274005752144</v>
+      </c>
+      <c r="D42">
+        <v>0.9991814975690072</v>
+      </c>
+      <c r="E42">
+        <v>1.003274005752144</v>
+      </c>
+      <c r="F42">
+        <v>0.9991814975690072</v>
+      </c>
+      <c r="G42">
+        <v>0.9991814975690072</v>
+      </c>
+      <c r="H42">
+        <v>1.001800697937223</v>
+      </c>
+      <c r="I42">
+        <v>0.9978173350229128</v>
+      </c>
+      <c r="J42">
+        <v>0.9991814975690072</v>
+      </c>
+      <c r="K42">
+        <v>0.9991814975690072</v>
+      </c>
+      <c r="L42">
+        <v>0.9991814975690072</v>
+      </c>
+      <c r="M42">
+        <v>1.001227751660576</v>
+      </c>
+      <c r="N42">
+        <v>1.001227751660576</v>
+      </c>
+      <c r="O42">
+        <v>1.001418733752791</v>
+      </c>
+      <c r="P42">
+        <v>1.000545666963386</v>
+      </c>
+      <c r="Q42">
+        <v>1.000545666963386</v>
+      </c>
+      <c r="R42">
+        <v>1.000204624614792</v>
+      </c>
+      <c r="S42">
+        <v>1.000204624614792</v>
+      </c>
+      <c r="T42">
+        <v>1.00007275523655</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/ShearF-HW50.xlsx
+++ b/JupyterNotebooks/AvgHW/ShearF-HW50.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,46 +85,43 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
-  </si>
-  <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9999346459020385</v>
+        <v>1.000039883468302</v>
       </c>
       <c r="D3">
-        <v>1.000261405711216</v>
+        <v>0.9999900267190296</v>
       </c>
       <c r="E3">
-        <v>0.9999346459020385</v>
+        <v>1.000039883468302</v>
       </c>
       <c r="F3">
-        <v>0.9999346459020385</v>
+        <v>0.9999900267190296</v>
       </c>
       <c r="G3">
-        <v>0.9998257291731821</v>
+        <v>0.9999900267190296</v>
       </c>
       <c r="H3">
-        <v>1.000143771385049</v>
+        <v>1.000021934678361</v>
       </c>
       <c r="I3">
-        <v>0.9999346459020385</v>
+        <v>0.9999734106279775</v>
       </c>
       <c r="J3">
-        <v>1.000261405711216</v>
+        <v>0.9999900267190296</v>
       </c>
       <c r="K3">
-        <v>0.9999346459020385</v>
+        <v>0.9999900267190296</v>
       </c>
       <c r="L3">
-        <v>0.9999346459020385</v>
+        <v>0.9999900267190296</v>
       </c>
       <c r="M3">
-        <v>1.000098025806627</v>
+        <v>1.000014955093666</v>
       </c>
       <c r="N3">
-        <v>1.000098025806627</v>
+        <v>1.000014955093666</v>
       </c>
       <c r="O3">
-        <v>1.000113274332768</v>
+        <v>1.000017281621898</v>
       </c>
       <c r="P3">
-        <v>1.000043565838431</v>
+        <v>1.000006645635454</v>
       </c>
       <c r="Q3">
-        <v>1.000043565838431</v>
+        <v>1.000006645635454</v>
       </c>
       <c r="R3">
-        <v>1.000016335854333</v>
+        <v>1.000002490906348</v>
       </c>
       <c r="S3">
-        <v>1.000016335854333</v>
+        <v>1.000002490906348</v>
       </c>
       <c r="T3">
-        <v>1.00000580732926</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+        <v>1.000000884821955</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9998738381124863</v>
+        <v>0.9994339536019146</v>
       </c>
       <c r="D4">
-        <v>1.000504638976168</v>
+        <v>1.000141507402168</v>
       </c>
       <c r="E4">
-        <v>0.9998738381124863</v>
+        <v>0.9994339536019146</v>
       </c>
       <c r="F4">
-        <v>0.9998738381124863</v>
+        <v>1.000141507402168</v>
       </c>
       <c r="G4">
-        <v>0.9996635714710189</v>
+        <v>1.000141507402168</v>
       </c>
       <c r="H4">
-        <v>1.000277550320195</v>
+        <v>0.9996886734132122</v>
       </c>
       <c r="I4">
-        <v>0.9998738381124863</v>
+        <v>1.000377364964442</v>
       </c>
       <c r="J4">
-        <v>1.000504638976168</v>
+        <v>1.000141507402168</v>
       </c>
       <c r="K4">
-        <v>0.9998738381124863</v>
+        <v>1.000141507402168</v>
       </c>
       <c r="L4">
-        <v>0.9998738381124863</v>
+        <v>1.000141507402168</v>
       </c>
       <c r="M4">
-        <v>1.000189238544327</v>
+        <v>0.9997877305020414</v>
       </c>
       <c r="N4">
-        <v>1.000189238544327</v>
+        <v>0.9997877305020414</v>
       </c>
       <c r="O4">
-        <v>1.00021867580295</v>
+        <v>0.9997547114724318</v>
       </c>
       <c r="P4">
-        <v>1.000084105067047</v>
+        <v>0.999905656135417</v>
       </c>
       <c r="Q4">
-        <v>1.000084105067047</v>
+        <v>0.999905656135417</v>
       </c>
       <c r="R4">
-        <v>1.000031538328407</v>
+        <v>0.9999646189521048</v>
       </c>
       <c r="S4">
-        <v>1.000031538328407</v>
+        <v>0.9999646189521048</v>
       </c>
       <c r="T4">
-        <v>1.000011212517473</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>0.9999874190310122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9997582274323231</v>
+        <v>1.002682605201731</v>
       </c>
       <c r="D5">
-        <v>1.00096708360052</v>
+        <v>0.9993293461599416</v>
       </c>
       <c r="E5">
-        <v>0.9997582274323231</v>
+        <v>1.002682605201731</v>
       </c>
       <c r="F5">
-        <v>0.9997582274323231</v>
+        <v>0.9993293461599416</v>
       </c>
       <c r="G5">
-        <v>0.9993552796067325</v>
+        <v>0.9993293461599416</v>
       </c>
       <c r="H5">
-        <v>1.000531893966553</v>
+        <v>1.00147543080692</v>
       </c>
       <c r="I5">
-        <v>0.9997582274323231</v>
+        <v>0.9982115958933723</v>
       </c>
       <c r="J5">
-        <v>1.00096708360052</v>
+        <v>0.9993293461599416</v>
       </c>
       <c r="K5">
-        <v>0.9997582274323231</v>
+        <v>0.9993293461599416</v>
       </c>
       <c r="L5">
-        <v>0.9997582274323231</v>
+        <v>0.9993293461599416</v>
       </c>
       <c r="M5">
-        <v>1.000362655516422</v>
+        <v>1.001005975680836</v>
       </c>
       <c r="N5">
-        <v>1.000362655516422</v>
+        <v>1.001005975680836</v>
       </c>
       <c r="O5">
-        <v>1.000419068333132</v>
+        <v>1.001162460722864</v>
       </c>
       <c r="P5">
-        <v>1.000161179488389</v>
+        <v>1.000447099173871</v>
       </c>
       <c r="Q5">
-        <v>1.000161179488389</v>
+        <v>1.000447099173871</v>
       </c>
       <c r="R5">
-        <v>1.000060441474372</v>
+        <v>1.000167660920389</v>
       </c>
       <c r="S5">
-        <v>1.000060441474372</v>
+        <v>1.000167660920389</v>
       </c>
       <c r="T5">
-        <v>1.000021489911796</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+        <v>1.000059611730308</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9996453997972402</v>
+        <v>1.009175295174311</v>
       </c>
       <c r="D6">
-        <v>1.001418396481083</v>
+        <v>0.9977061750085332</v>
       </c>
       <c r="E6">
-        <v>0.9996453997972402</v>
+        <v>1.009175295174311</v>
       </c>
       <c r="F6">
-        <v>0.9996453997972402</v>
+        <v>0.9977061750085332</v>
       </c>
       <c r="G6">
-        <v>0.9990544008062195</v>
+        <v>0.9977061750085332</v>
       </c>
       <c r="H6">
-        <v>1.000780107630316</v>
+        <v>1.005046401469855</v>
       </c>
       <c r="I6">
-        <v>0.9996453997972402</v>
+        <v>0.9938831411203861</v>
       </c>
       <c r="J6">
-        <v>1.001418396481083</v>
+        <v>0.9977061750085332</v>
       </c>
       <c r="K6">
-        <v>0.9996453997972402</v>
+        <v>0.9977061750085332</v>
       </c>
       <c r="L6">
-        <v>0.9996453997972402</v>
+        <v>0.9977061750085332</v>
       </c>
       <c r="M6">
-        <v>1.000531898139162</v>
+        <v>1.003440735091422</v>
       </c>
       <c r="N6">
-        <v>1.000531898139162</v>
+        <v>1.003440735091422</v>
       </c>
       <c r="O6">
-        <v>1.000614634636213</v>
+        <v>1.003975957217566</v>
       </c>
       <c r="P6">
-        <v>1.000236398691855</v>
+        <v>1.001529215063792</v>
       </c>
       <c r="Q6">
-        <v>1.000236398691855</v>
+        <v>1.001529215063792</v>
       </c>
       <c r="R6">
-        <v>1.000088648968201</v>
+        <v>1.000573455049978</v>
       </c>
       <c r="S6">
-        <v>1.000088648968201</v>
+        <v>1.000573455049978</v>
       </c>
       <c r="T6">
-        <v>1.00003151738489</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>1.000203893798359</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9999957145475029</v>
+        <v>1.000270036324739</v>
       </c>
       <c r="D7">
-        <v>1.000017132146924</v>
+        <v>0.999932488117655</v>
       </c>
       <c r="E7">
-        <v>0.9999957145475029</v>
+        <v>1.000270036324739</v>
       </c>
       <c r="F7">
-        <v>0.9999957145475029</v>
+        <v>0.999932488117655</v>
       </c>
       <c r="G7">
-        <v>0.9999885779639821</v>
+        <v>0.999932488117655</v>
       </c>
       <c r="H7">
-        <v>1.000009421414056</v>
+        <v>1.000148518673758</v>
       </c>
       <c r="I7">
-        <v>0.9999957145475029</v>
+        <v>0.999819975158847</v>
       </c>
       <c r="J7">
-        <v>1.000017132146924</v>
+        <v>0.999932488117655</v>
       </c>
       <c r="K7">
-        <v>0.9999957145475029</v>
+        <v>0.999932488117655</v>
       </c>
       <c r="L7">
-        <v>0.9999957145475029</v>
+        <v>0.999932488117655</v>
       </c>
       <c r="M7">
-        <v>1.000006423347213</v>
+        <v>1.000101262221197</v>
       </c>
       <c r="N7">
-        <v>1.000006423347213</v>
+        <v>1.000101262221197</v>
       </c>
       <c r="O7">
-        <v>1.000007422702828</v>
+        <v>1.000117014372051</v>
       </c>
       <c r="P7">
-        <v>1.00000285374731</v>
+        <v>1.000045004186683</v>
       </c>
       <c r="Q7">
-        <v>1.00000285374731</v>
+        <v>1.000045004186683</v>
       </c>
       <c r="R7">
-        <v>1.000001068947358</v>
+        <v>1.000016875169426</v>
       </c>
       <c r="S7">
-        <v>1.000001068947358</v>
+        <v>1.000016875169426</v>
       </c>
       <c r="T7">
-        <v>1.000000379194578</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>1.000005999085051</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9999900267190296</v>
+        <v>1.000022860390393</v>
       </c>
       <c r="D8">
-        <v>1.000039883468302</v>
+        <v>0.9999942822547845</v>
       </c>
       <c r="E8">
-        <v>0.9999900267190296</v>
+        <v>1.000022860390393</v>
       </c>
       <c r="F8">
-        <v>0.9999900267190296</v>
+        <v>0.9999942822547845</v>
       </c>
       <c r="G8">
-        <v>0.9999734106279778</v>
+        <v>0.9999942822547845</v>
       </c>
       <c r="H8">
-        <v>1.000021934678361</v>
+        <v>1.0000125715139</v>
       </c>
       <c r="I8">
-        <v>0.9999900267190296</v>
+        <v>0.9999847593117226</v>
       </c>
       <c r="J8">
-        <v>1.000039883468302</v>
+        <v>0.9999942822547845</v>
       </c>
       <c r="K8">
-        <v>0.9999900267190296</v>
+        <v>0.9999942822547845</v>
       </c>
       <c r="L8">
-        <v>0.9999900267190296</v>
+        <v>0.9999942822547845</v>
       </c>
       <c r="M8">
-        <v>1.000014955093666</v>
+        <v>1.000008571322589</v>
       </c>
       <c r="N8">
-        <v>1.000014955093666</v>
+        <v>1.000008571322589</v>
       </c>
       <c r="O8">
-        <v>1.000017281621898</v>
+        <v>1.000009904719692</v>
       </c>
       <c r="P8">
-        <v>1.000006645635454</v>
+        <v>1.000003808299987</v>
       </c>
       <c r="Q8">
-        <v>1.000006645635454</v>
+        <v>1.000003808299987</v>
       </c>
       <c r="R8">
-        <v>1.000002490906348</v>
+        <v>1.000001426788687</v>
       </c>
       <c r="S8">
-        <v>1.000002490906348</v>
+        <v>1.000001426788687</v>
       </c>
       <c r="T8">
-        <v>1.000000884821955</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>1.000000506330061</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9999867165035378</v>
+        <v>1.000504638976168</v>
       </c>
       <c r="D9">
-        <v>1.00005312462476</v>
+        <v>0.9998738381124863</v>
       </c>
       <c r="E9">
-        <v>0.9999867165035378</v>
+        <v>1.000504638976168</v>
       </c>
       <c r="F9">
-        <v>0.9999867165035378</v>
+        <v>0.9998738381124863</v>
       </c>
       <c r="G9">
-        <v>0.9999645831053817</v>
+        <v>0.9998738381124863</v>
       </c>
       <c r="H9">
-        <v>1.000029217134552</v>
+        <v>1.000277550320195</v>
       </c>
       <c r="I9">
-        <v>0.9999867165035378</v>
+        <v>0.9996635714710189</v>
       </c>
       <c r="J9">
-        <v>1.00005312462476</v>
+        <v>0.9998738381124863</v>
       </c>
       <c r="K9">
-        <v>0.9999867165035378</v>
+        <v>0.9998738381124863</v>
       </c>
       <c r="L9">
-        <v>0.9999867165035378</v>
+        <v>0.9998738381124863</v>
       </c>
       <c r="M9">
-        <v>1.000019920564149</v>
+        <v>1.000189238544327</v>
       </c>
       <c r="N9">
-        <v>1.000019920564149</v>
+        <v>1.000189238544327</v>
       </c>
       <c r="O9">
-        <v>1.00002301942095</v>
+        <v>1.00021867580295</v>
       </c>
       <c r="P9">
-        <v>1.000008852543945</v>
+        <v>1.000084105067047</v>
       </c>
       <c r="Q9">
-        <v>1.000008852543945</v>
+        <v>1.000084105067047</v>
       </c>
       <c r="R9">
-        <v>1.000003318533843</v>
+        <v>1.000031538328407</v>
       </c>
       <c r="S9">
-        <v>1.000003318533843</v>
+        <v>1.000031538328407</v>
       </c>
       <c r="T9">
-        <v>1.000001179062551</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+        <v>1.000011212517473</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9999706952003459</v>
+        <v>1.009311986195228</v>
       </c>
       <c r="D10">
-        <v>1.00011720907637</v>
+        <v>0.9976720013234822</v>
       </c>
       <c r="E10">
-        <v>0.9999706952003459</v>
+        <v>1.009311986195228</v>
       </c>
       <c r="F10">
-        <v>0.9999706952003459</v>
+        <v>0.9976720013234822</v>
       </c>
       <c r="G10">
-        <v>0.9999218608965403</v>
+        <v>0.9976720013234822</v>
       </c>
       <c r="H10">
-        <v>1.000064462919126</v>
+        <v>1.005121582222298</v>
       </c>
       <c r="I10">
-        <v>0.9999706952003459</v>
+        <v>0.9937920126960088</v>
       </c>
       <c r="J10">
-        <v>1.00011720907637</v>
+        <v>0.9976720013234822</v>
       </c>
       <c r="K10">
-        <v>0.9999706952003459</v>
+        <v>0.9976720013234822</v>
       </c>
       <c r="L10">
-        <v>0.9999706952003459</v>
+        <v>0.9976720013234822</v>
       </c>
       <c r="M10">
-        <v>1.000043952138358</v>
+        <v>1.003491993759355</v>
       </c>
       <c r="N10">
-        <v>1.000043952138358</v>
+        <v>1.003491993759355</v>
       </c>
       <c r="O10">
-        <v>1.00005078906528</v>
+        <v>1.004035189913669</v>
       </c>
       <c r="P10">
-        <v>1.00001953315902</v>
+        <v>1.001551996280731</v>
       </c>
       <c r="Q10">
-        <v>1.00001953315902</v>
+        <v>1.001551996280731</v>
       </c>
       <c r="R10">
-        <v>1.000007323669352</v>
+        <v>1.000581997541419</v>
       </c>
       <c r="S10">
-        <v>1.000007323669352</v>
+        <v>1.000581997541419</v>
       </c>
       <c r="T10">
-        <v>1.000002603082179</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+        <v>1.00020693084733</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9999533474123841</v>
+        <v>1.000227023968476</v>
       </c>
       <c r="D11">
-        <v>1.000186599095983</v>
+        <v>0.9999432410915212</v>
       </c>
       <c r="E11">
-        <v>0.9999533474123841</v>
+        <v>1.000227023968476</v>
       </c>
       <c r="F11">
-        <v>0.9999533474123841</v>
+        <v>0.9999432410915212</v>
       </c>
       <c r="G11">
-        <v>0.9998755986670198</v>
+        <v>0.9999432410915212</v>
       </c>
       <c r="H11">
-        <v>1.000102627263866</v>
+        <v>1.000124860853113</v>
       </c>
       <c r="I11">
-        <v>0.9999533474123841</v>
+        <v>0.9998486522485515</v>
       </c>
       <c r="J11">
-        <v>1.000186599095983</v>
+        <v>0.9999432410915212</v>
       </c>
       <c r="K11">
-        <v>0.9999533474123841</v>
+        <v>0.9999432410915212</v>
       </c>
       <c r="L11">
-        <v>0.9999533474123841</v>
+        <v>0.9999432410915212</v>
       </c>
       <c r="M11">
-        <v>1.000069973254183</v>
+        <v>1.000085132529999</v>
       </c>
       <c r="N11">
-        <v>1.000069973254183</v>
+        <v>1.000085132529999</v>
       </c>
       <c r="O11">
-        <v>1.000080857924078</v>
+        <v>1.00009837530437</v>
       </c>
       <c r="P11">
-        <v>1.000031097973584</v>
+        <v>1.00003783538384</v>
       </c>
       <c r="Q11">
-        <v>1.000031097973584</v>
+        <v>1.00003783538384</v>
       </c>
       <c r="R11">
-        <v>1.000011660333284</v>
+        <v>1.00001418681076</v>
       </c>
       <c r="S11">
-        <v>1.000011660333284</v>
+        <v>1.00001418681076</v>
       </c>
       <c r="T11">
-        <v>1.000004144544003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+        <v>1.000005043390784</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.000313923165885</v>
+        <v>1.002773238968425</v>
       </c>
       <c r="D12">
-        <v>0.9987442807092567</v>
+        <v>0.9993066859263178</v>
       </c>
       <c r="E12">
-        <v>1.000313923165885</v>
+        <v>1.002773238968425</v>
       </c>
       <c r="F12">
-        <v>1.000313923165885</v>
+        <v>0.9993066859263178</v>
       </c>
       <c r="G12">
-        <v>1.000837139764808</v>
+        <v>0.9993066859263178</v>
       </c>
       <c r="H12">
-        <v>0.9993093563590919</v>
+        <v>1.001525280368425</v>
       </c>
       <c r="I12">
-        <v>1.000313923165885</v>
+        <v>0.9981511711157895</v>
       </c>
       <c r="J12">
-        <v>0.9987442807092567</v>
+        <v>0.9993066859263178</v>
       </c>
       <c r="K12">
-        <v>1.000313923165885</v>
+        <v>0.9993066859263178</v>
       </c>
       <c r="L12">
-        <v>1.000313923165885</v>
+        <v>0.9993066859263178</v>
       </c>
       <c r="M12">
-        <v>0.9995291019375707</v>
+        <v>1.001039962447371</v>
       </c>
       <c r="N12">
-        <v>0.9995291019375707</v>
+        <v>1.001039962447371</v>
       </c>
       <c r="O12">
-        <v>0.9994558534114111</v>
+        <v>1.001201735087722</v>
       </c>
       <c r="P12">
-        <v>0.9997907090136753</v>
+        <v>1.00046220360702</v>
       </c>
       <c r="Q12">
-        <v>0.9997907090136753</v>
+        <v>1.00046220360702</v>
       </c>
       <c r="R12">
-        <v>0.9999215125517276</v>
+        <v>1.000173324186844</v>
       </c>
       <c r="S12">
-        <v>0.9999215125517276</v>
+        <v>1.000173324186844</v>
       </c>
       <c r="T12">
-        <v>0.9999720910551351</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>1.000061624705265</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.000080556694701</v>
+        <v>0.9981685738142615</v>
       </c>
       <c r="D13">
-        <v>0.9996777471256533</v>
+        <v>1.000457850631867</v>
       </c>
       <c r="E13">
-        <v>1.000080556694701</v>
+        <v>0.9981685738142615</v>
       </c>
       <c r="F13">
-        <v>1.000080556694701</v>
+        <v>1.000457850631867</v>
       </c>
       <c r="G13">
-        <v>1.000214833475117</v>
+        <v>1.000457850631867</v>
       </c>
       <c r="H13">
-        <v>0.9998227609416107</v>
+        <v>0.9989927163288095</v>
       </c>
       <c r="I13">
-        <v>1.000080556694701</v>
+        <v>1.001220946494584</v>
       </c>
       <c r="J13">
-        <v>0.9996777471256533</v>
+        <v>1.000457850631867</v>
       </c>
       <c r="K13">
-        <v>1.000080556694701</v>
+        <v>1.000457850631867</v>
       </c>
       <c r="L13">
-        <v>1.000080556694701</v>
+        <v>1.000457850631867</v>
       </c>
       <c r="M13">
-        <v>0.9998791519101771</v>
+        <v>0.9993132122230641</v>
       </c>
       <c r="N13">
-        <v>0.9998791519101771</v>
+        <v>0.9993132122230641</v>
       </c>
       <c r="O13">
-        <v>0.9998603549206549</v>
+        <v>0.9992063802583125</v>
       </c>
       <c r="P13">
-        <v>0.9999462868383517</v>
+        <v>0.9996947583593316</v>
       </c>
       <c r="Q13">
-        <v>0.9999462868383517</v>
+        <v>0.9996947583593316</v>
       </c>
       <c r="R13">
-        <v>0.999979854302439</v>
+        <v>0.9998855314274654</v>
       </c>
       <c r="S13">
-        <v>0.999979854302439</v>
+        <v>0.9998855314274654</v>
       </c>
       <c r="T13">
-        <v>0.9999928352710805</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+        <v>0.9999592980888758</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.000740231517839</v>
+        <v>1.016088400000001</v>
       </c>
       <c r="D14">
-        <v>0.9970390191027829</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="E14">
-        <v>1.000740231517839</v>
+        <v>1.016088400000001</v>
       </c>
       <c r="F14">
-        <v>1.000740231517839</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="G14">
-        <v>1.001973980505824</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="H14">
-        <v>0.9983714688877133</v>
+        <v>1.008848599999999</v>
       </c>
       <c r="I14">
-        <v>1.000740231517839</v>
+        <v>0.9892744099999995</v>
       </c>
       <c r="J14">
-        <v>0.9970390191027829</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="K14">
-        <v>1.000740231517839</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="L14">
-        <v>1.000740231517839</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="M14">
-        <v>0.9988896253103111</v>
+        <v>1.00603315</v>
       </c>
       <c r="N14">
-        <v>0.9988896253103111</v>
+        <v>1.00603315</v>
       </c>
       <c r="O14">
-        <v>0.9987169065027786</v>
+        <v>1.006971633333333</v>
       </c>
       <c r="P14">
-        <v>0.9995064940461539</v>
+        <v>1.0026814</v>
       </c>
       <c r="Q14">
-        <v>0.9995064940461539</v>
+        <v>1.0026814</v>
       </c>
       <c r="R14">
-        <v>0.9998149284140752</v>
+        <v>1.001005525</v>
       </c>
       <c r="S14">
-        <v>0.9998149284140752</v>
+        <v>1.001005525</v>
       </c>
       <c r="T14">
-        <v>0.9999341938416396</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+        <v>1.000357518333333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.000191609808738</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="D15">
-        <v>0.9992335485138972</v>
+        <v>1.0010055</v>
       </c>
       <c r="E15">
-        <v>1.000191609808738</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="F15">
-        <v>1.000191609808738</v>
+        <v>1.0010055</v>
       </c>
       <c r="G15">
-        <v>1.000510962408722</v>
+        <v>1.0010055</v>
       </c>
       <c r="H15">
-        <v>0.9995784494664682</v>
+        <v>0.99778785</v>
       </c>
       <c r="I15">
-        <v>1.000191609808738</v>
+        <v>1.0026814</v>
       </c>
       <c r="J15">
-        <v>0.9992335485138972</v>
+        <v>1.0010055</v>
       </c>
       <c r="K15">
-        <v>1.000191609808738</v>
+        <v>1.0010055</v>
       </c>
       <c r="L15">
-        <v>1.000191609808738</v>
+        <v>1.0010055</v>
       </c>
       <c r="M15">
-        <v>0.9997125791613178</v>
+        <v>0.9984917</v>
       </c>
       <c r="N15">
-        <v>0.9997125791613178</v>
+        <v>0.9984917</v>
       </c>
       <c r="O15">
-        <v>0.9996678692630346</v>
+        <v>0.9982570833333333</v>
       </c>
       <c r="P15">
-        <v>0.9998722560437914</v>
+        <v>0.9993296333333334</v>
       </c>
       <c r="Q15">
-        <v>0.9998722560437914</v>
+        <v>0.9993296333333334</v>
       </c>
       <c r="R15">
-        <v>0.9999520944850282</v>
+        <v>0.9997486</v>
       </c>
       <c r="S15">
-        <v>0.9999520944850282</v>
+        <v>0.9997486</v>
       </c>
       <c r="T15">
-        <v>0.9999829649692171</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+        <v>0.9999106083333333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.999999727622689</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="D16">
-        <v>1.000001079611685</v>
+        <v>1.0010055</v>
       </c>
       <c r="E16">
-        <v>0.999999727622689</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="F16">
-        <v>0.999999727622689</v>
+        <v>1.0010055</v>
       </c>
       <c r="G16">
-        <v>0.9999992795846588</v>
+        <v>1.0010055</v>
       </c>
       <c r="H16">
-        <v>1.000000592539203</v>
+        <v>0.99778785</v>
       </c>
       <c r="I16">
-        <v>0.999999727622689</v>
+        <v>1.0026814</v>
       </c>
       <c r="J16">
-        <v>1.000001079611685</v>
+        <v>1.0010055</v>
       </c>
       <c r="K16">
-        <v>0.999999727622689</v>
+        <v>1.0010055</v>
       </c>
       <c r="L16">
-        <v>0.999999727622689</v>
+        <v>1.0010055</v>
       </c>
       <c r="M16">
-        <v>1.000000403617187</v>
+        <v>0.9984917</v>
       </c>
       <c r="N16">
-        <v>1.000000403617187</v>
+        <v>0.9984917</v>
       </c>
       <c r="O16">
-        <v>1.000000466591192</v>
+        <v>0.9982570833333333</v>
       </c>
       <c r="P16">
-        <v>1.000000178285688</v>
+        <v>0.9993296333333334</v>
       </c>
       <c r="Q16">
-        <v>1.000000178285688</v>
+        <v>0.9993296333333334</v>
       </c>
       <c r="R16">
-        <v>1.000000065619938</v>
+        <v>0.9997486</v>
       </c>
       <c r="S16">
-        <v>1.000000065619938</v>
+        <v>0.9997486</v>
       </c>
       <c r="T16">
-        <v>1.000000022433936</v>
+        <v>0.9999106083333333</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9999942822547846</v>
+        <v>0.98969338</v>
       </c>
       <c r="D17">
-        <v>1.000022860390393</v>
+        <v>1.0025767</v>
       </c>
       <c r="E17">
-        <v>0.9999942822547846</v>
+        <v>0.98969338</v>
       </c>
       <c r="F17">
-        <v>0.9999942822547846</v>
+        <v>1.0025767</v>
       </c>
       <c r="G17">
-        <v>0.9999847593117226</v>
+        <v>1.0025767</v>
       </c>
       <c r="H17">
-        <v>1.0000125715139</v>
+        <v>0.99433136</v>
       </c>
       <c r="I17">
-        <v>0.9999942822547846</v>
+        <v>1.0068711</v>
       </c>
       <c r="J17">
-        <v>1.000022860390393</v>
+        <v>1.0025767</v>
       </c>
       <c r="K17">
-        <v>0.9999942822547846</v>
+        <v>1.0025767</v>
       </c>
       <c r="L17">
-        <v>0.9999942822547846</v>
+        <v>1.0025767</v>
       </c>
       <c r="M17">
-        <v>1.000008571322589</v>
+        <v>0.99613504</v>
       </c>
       <c r="N17">
-        <v>1.000008571322589</v>
+        <v>0.99613504</v>
       </c>
       <c r="O17">
-        <v>1.000009904719692</v>
+        <v>0.9955338133333332</v>
       </c>
       <c r="P17">
-        <v>1.000003808299987</v>
+        <v>0.99828226</v>
       </c>
       <c r="Q17">
-        <v>1.000003808299987</v>
+        <v>0.99828226</v>
       </c>
       <c r="R17">
-        <v>1.000001426788687</v>
+        <v>0.99935587</v>
       </c>
       <c r="S17">
-        <v>1.000001426788687</v>
+        <v>0.99935587</v>
       </c>
       <c r="T17">
-        <v>1.000000506330062</v>
+        <v>0.99977099</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9999798765436096</v>
+        <v>1.005895405753425</v>
       </c>
       <c r="D18">
-        <v>1.000080486315863</v>
+        <v>0.9985261443835616</v>
       </c>
       <c r="E18">
-        <v>0.9999798765436096</v>
+        <v>1.005895405753425</v>
       </c>
       <c r="F18">
-        <v>0.9999798765436096</v>
+        <v>0.9985261443835616</v>
       </c>
       <c r="G18">
-        <v>0.9999463447508222</v>
+        <v>0.9985261443835616</v>
       </c>
       <c r="H18">
-        <v>1.000044262496521</v>
+        <v>1.003242464246575</v>
       </c>
       <c r="I18">
-        <v>0.9999798765436096</v>
+        <v>0.9960697315068493</v>
       </c>
       <c r="J18">
-        <v>1.000080486315863</v>
+        <v>0.9985261443835616</v>
       </c>
       <c r="K18">
-        <v>0.9999798765436096</v>
+        <v>0.9985261443835616</v>
       </c>
       <c r="L18">
-        <v>0.9999798765436096</v>
+        <v>0.9985261443835616</v>
       </c>
       <c r="M18">
-        <v>1.000030181429737</v>
+        <v>1.002210775068493</v>
       </c>
       <c r="N18">
-        <v>1.000030181429737</v>
+        <v>1.002210775068493</v>
       </c>
       <c r="O18">
-        <v>1.000034875118665</v>
+        <v>1.002554671461187</v>
       </c>
       <c r="P18">
-        <v>1.000013413134361</v>
+        <v>1.000982564840183</v>
       </c>
       <c r="Q18">
-        <v>1.000013413134361</v>
+        <v>1.000982564840183</v>
       </c>
       <c r="R18">
-        <v>1.000005028986673</v>
+        <v>1.000368459726027</v>
       </c>
       <c r="S18">
-        <v>1.000005028986673</v>
+        <v>1.000368459726027</v>
       </c>
       <c r="T18">
-        <v>1.000001787199006</v>
+        <v>1.000131005776256</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9999528625992226</v>
+        <v>0.9988886242105264</v>
       </c>
       <c r="D19">
-        <v>1.000188554038776</v>
+        <v>1.000277834210526</v>
       </c>
       <c r="E19">
-        <v>0.9999528625992226</v>
+        <v>0.9988886242105264</v>
       </c>
       <c r="F19">
-        <v>0.9999528625992226</v>
+        <v>1.000277834210526</v>
       </c>
       <c r="G19">
-        <v>0.9998742982819733</v>
+        <v>1.000277834210526</v>
       </c>
       <c r="H19">
-        <v>1.000103699572714</v>
+        <v>0.9993887473684211</v>
       </c>
       <c r="I19">
-        <v>0.9999528625992226</v>
+        <v>1.000740918421053</v>
       </c>
       <c r="J19">
-        <v>1.000188554038776</v>
+        <v>1.000277834210526</v>
       </c>
       <c r="K19">
-        <v>0.9999528625992226</v>
+        <v>1.000277834210526</v>
       </c>
       <c r="L19">
-        <v>0.9999528625992226</v>
+        <v>1.000277834210526</v>
       </c>
       <c r="M19">
-        <v>1.000070708318999</v>
+        <v>0.9995832292105263</v>
       </c>
       <c r="N19">
-        <v>1.000070708318999</v>
+        <v>0.9995832292105263</v>
       </c>
       <c r="O19">
-        <v>1.000081705403571</v>
+        <v>0.9995184019298247</v>
       </c>
       <c r="P19">
-        <v>1.000031426412407</v>
+        <v>0.9998147642105263</v>
       </c>
       <c r="Q19">
-        <v>1.000031426412407</v>
+        <v>0.9998147642105263</v>
       </c>
       <c r="R19">
-        <v>1.000011785459111</v>
+        <v>0.9999305317105263</v>
       </c>
       <c r="S19">
-        <v>1.000011785459111</v>
+        <v>0.9999305317105263</v>
       </c>
       <c r="T19">
-        <v>1.000004189948522</v>
+        <v>0.9999752987719298</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9988886242105264</v>
+      </c>
+      <c r="D20">
+        <v>1.000277834210526</v>
+      </c>
+      <c r="E20">
+        <v>0.9988886242105264</v>
+      </c>
+      <c r="F20">
+        <v>1.000277834210526</v>
+      </c>
+      <c r="G20">
+        <v>1.000277834210526</v>
+      </c>
+      <c r="H20">
+        <v>0.9993887473684211</v>
+      </c>
+      <c r="I20">
+        <v>1.000740918421053</v>
+      </c>
+      <c r="J20">
+        <v>1.000277834210526</v>
+      </c>
+      <c r="K20">
+        <v>1.000277834210526</v>
+      </c>
+      <c r="L20">
+        <v>1.000277834210526</v>
+      </c>
+      <c r="M20">
+        <v>0.9995832292105263</v>
+      </c>
+      <c r="N20">
+        <v>0.9995832292105263</v>
+      </c>
+      <c r="O20">
+        <v>0.9995184019298247</v>
+      </c>
+      <c r="P20">
+        <v>0.9998147642105263</v>
+      </c>
+      <c r="Q20">
+        <v>0.9998147642105263</v>
+      </c>
+      <c r="R20">
+        <v>0.9999305317105263</v>
+      </c>
+      <c r="S20">
+        <v>0.9999305317105263</v>
+      </c>
+      <c r="T20">
+        <v>0.9999752987719298</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9970390191027829</v>
+      </c>
+      <c r="D21">
+        <v>1.000740231517839</v>
+      </c>
+      <c r="E21">
+        <v>0.9970390191027829</v>
+      </c>
+      <c r="F21">
+        <v>1.000740231517839</v>
+      </c>
+      <c r="G21">
+        <v>1.000740231517839</v>
+      </c>
+      <c r="H21">
+        <v>0.9983714688877133</v>
+      </c>
+      <c r="I21">
+        <v>1.001973980505824</v>
+      </c>
+      <c r="J21">
+        <v>1.000740231517839</v>
+      </c>
+      <c r="K21">
+        <v>1.000740231517839</v>
+      </c>
+      <c r="L21">
+        <v>1.000740231517839</v>
+      </c>
+      <c r="M21">
+        <v>0.9988896253103111</v>
+      </c>
+      <c r="N21">
+        <v>0.9988896253103111</v>
+      </c>
+      <c r="O21">
+        <v>0.9987169065027786</v>
+      </c>
+      <c r="P21">
+        <v>0.9995064940461539</v>
+      </c>
+      <c r="Q21">
+        <v>0.9995064940461539</v>
+      </c>
+      <c r="R21">
+        <v>0.9998149284140752</v>
+      </c>
+      <c r="S21">
+        <v>0.9998149284140752</v>
+      </c>
+      <c r="T21">
+        <v>0.9999341938416396</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9992335485138972</v>
+      </c>
+      <c r="D22">
+        <v>1.000191609808738</v>
+      </c>
+      <c r="E22">
+        <v>0.9992335485138972</v>
+      </c>
+      <c r="F22">
+        <v>1.000191609808738</v>
+      </c>
+      <c r="G22">
+        <v>1.000191609808738</v>
+      </c>
+      <c r="H22">
+        <v>0.9995784494664681</v>
+      </c>
+      <c r="I22">
+        <v>1.000510962408722</v>
+      </c>
+      <c r="J22">
+        <v>1.000191609808738</v>
+      </c>
+      <c r="K22">
+        <v>1.000191609808738</v>
+      </c>
+      <c r="L22">
+        <v>1.000191609808738</v>
+      </c>
+      <c r="M22">
+        <v>0.9997125791613178</v>
+      </c>
+      <c r="N22">
+        <v>0.9997125791613178</v>
+      </c>
+      <c r="O22">
+        <v>0.9996678692630345</v>
+      </c>
+      <c r="P22">
+        <v>0.9998722560437914</v>
+      </c>
+      <c r="Q22">
+        <v>0.9998722560437914</v>
+      </c>
+      <c r="R22">
+        <v>0.9999520944850282</v>
+      </c>
+      <c r="S22">
+        <v>0.9999520944850282</v>
+      </c>
+      <c r="T22">
+        <v>0.9999829649692171</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9987442807092567</v>
+      </c>
+      <c r="D23">
+        <v>1.000313923165885</v>
+      </c>
+      <c r="E23">
+        <v>0.9987442807092567</v>
+      </c>
+      <c r="F23">
+        <v>1.000313923165885</v>
+      </c>
+      <c r="G23">
+        <v>1.000313923165885</v>
+      </c>
+      <c r="H23">
+        <v>0.9993093563590919</v>
+      </c>
+      <c r="I23">
+        <v>1.000837139764808</v>
+      </c>
+      <c r="J23">
+        <v>1.000313923165885</v>
+      </c>
+      <c r="K23">
+        <v>1.000313923165885</v>
+      </c>
+      <c r="L23">
+        <v>1.000313923165885</v>
+      </c>
+      <c r="M23">
+        <v>0.9995291019375707</v>
+      </c>
+      <c r="N23">
+        <v>0.9995291019375707</v>
+      </c>
+      <c r="O23">
+        <v>0.9994558534114111</v>
+      </c>
+      <c r="P23">
+        <v>0.9997907090136753</v>
+      </c>
+      <c r="Q23">
+        <v>0.9997907090136753</v>
+      </c>
+      <c r="R23">
+        <v>0.9999215125517276</v>
+      </c>
+      <c r="S23">
+        <v>0.9999215125517276</v>
+      </c>
+      <c r="T23">
+        <v>0.9999720910551351</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9996777471256533</v>
+      </c>
+      <c r="D24">
+        <v>1.000080556694701</v>
+      </c>
+      <c r="E24">
+        <v>0.9996777471256533</v>
+      </c>
+      <c r="F24">
+        <v>1.000080556694701</v>
+      </c>
+      <c r="G24">
+        <v>1.000080556694701</v>
+      </c>
+      <c r="H24">
+        <v>0.9998227609416107</v>
+      </c>
+      <c r="I24">
+        <v>1.000214833475117</v>
+      </c>
+      <c r="J24">
+        <v>1.000080556694701</v>
+      </c>
+      <c r="K24">
+        <v>1.000080556694701</v>
+      </c>
+      <c r="L24">
+        <v>1.000080556694701</v>
+      </c>
+      <c r="M24">
+        <v>0.9998791519101771</v>
+      </c>
+      <c r="N24">
+        <v>0.9998791519101771</v>
+      </c>
+      <c r="O24">
+        <v>0.9998603549206549</v>
+      </c>
+      <c r="P24">
+        <v>0.9999462868383517</v>
+      </c>
+      <c r="Q24">
+        <v>0.9999462868383517</v>
+      </c>
+      <c r="R24">
+        <v>0.999979854302439</v>
+      </c>
+      <c r="S24">
+        <v>0.999979854302439</v>
+      </c>
+      <c r="T24">
+        <v>0.9999928352710805</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9970390191027829</v>
+      </c>
+      <c r="D25">
+        <v>1.000740231517839</v>
+      </c>
+      <c r="E25">
+        <v>0.9970390191027829</v>
+      </c>
+      <c r="F25">
+        <v>1.000740231517839</v>
+      </c>
+      <c r="G25">
+        <v>1.000740231517839</v>
+      </c>
+      <c r="H25">
+        <v>0.9983714688877133</v>
+      </c>
+      <c r="I25">
+        <v>1.001973980505824</v>
+      </c>
+      <c r="J25">
+        <v>1.000740231517839</v>
+      </c>
+      <c r="K25">
+        <v>1.000740231517839</v>
+      </c>
+      <c r="L25">
+        <v>1.000740231517839</v>
+      </c>
+      <c r="M25">
+        <v>0.9988896253103111</v>
+      </c>
+      <c r="N25">
+        <v>0.9988896253103111</v>
+      </c>
+      <c r="O25">
+        <v>0.9987169065027786</v>
+      </c>
+      <c r="P25">
+        <v>0.9995064940461539</v>
+      </c>
+      <c r="Q25">
+        <v>0.9995064940461539</v>
+      </c>
+      <c r="R25">
+        <v>0.9998149284140752</v>
+      </c>
+      <c r="S25">
+        <v>0.9998149284140752</v>
+      </c>
+      <c r="T25">
+        <v>0.9999341938416396</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9992335485138972</v>
+      </c>
+      <c r="D26">
+        <v>1.000191609808738</v>
+      </c>
+      <c r="E26">
+        <v>0.9992335485138972</v>
+      </c>
+      <c r="F26">
+        <v>1.000191609808738</v>
+      </c>
+      <c r="G26">
+        <v>1.000191609808738</v>
+      </c>
+      <c r="H26">
+        <v>0.9995784494664681</v>
+      </c>
+      <c r="I26">
+        <v>1.000510962408722</v>
+      </c>
+      <c r="J26">
+        <v>1.000191609808738</v>
+      </c>
+      <c r="K26">
+        <v>1.000191609808738</v>
+      </c>
+      <c r="L26">
+        <v>1.000191609808738</v>
+      </c>
+      <c r="M26">
+        <v>0.9997125791613178</v>
+      </c>
+      <c r="N26">
+        <v>0.9997125791613178</v>
+      </c>
+      <c r="O26">
+        <v>0.9996678692630345</v>
+      </c>
+      <c r="P26">
+        <v>0.9998722560437914</v>
+      </c>
+      <c r="Q26">
+        <v>0.9998722560437914</v>
+      </c>
+      <c r="R26">
+        <v>0.9999520944850282</v>
+      </c>
+      <c r="S26">
+        <v>0.9999520944850282</v>
+      </c>
+      <c r="T26">
+        <v>0.9999829649692171</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.000958862078786</v>
+      </c>
+      <c r="D27">
+        <v>0.9997602810726715</v>
+      </c>
+      <c r="E27">
+        <v>1.000958862078786</v>
+      </c>
+      <c r="F27">
+        <v>0.9997602810726715</v>
+      </c>
+      <c r="G27">
+        <v>0.9997602810726715</v>
+      </c>
+      <c r="H27">
+        <v>1.000527376453478</v>
+      </c>
+      <c r="I27">
+        <v>0.9993607651568207</v>
+      </c>
+      <c r="J27">
+        <v>0.9997602810726715</v>
+      </c>
+      <c r="K27">
+        <v>0.9997602810726715</v>
+      </c>
+      <c r="L27">
+        <v>0.9997602810726715</v>
+      </c>
+      <c r="M27">
+        <v>1.000359571575729</v>
+      </c>
+      <c r="N27">
+        <v>1.000359571575729</v>
+      </c>
+      <c r="O27">
+        <v>1.000415506534978</v>
+      </c>
+      <c r="P27">
+        <v>1.00015980807471</v>
+      </c>
+      <c r="Q27">
+        <v>1.00015980807471</v>
+      </c>
+      <c r="R27">
+        <v>1.0000599263242</v>
+      </c>
+      <c r="S27">
+        <v>1.0000599263242</v>
+      </c>
+      <c r="T27">
+        <v>1.00002130781785</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9992044072213501</v>
+      </c>
+      <c r="D28">
+        <v>1.000198890085262</v>
+      </c>
+      <c r="E28">
+        <v>0.9992044072213501</v>
+      </c>
+      <c r="F28">
+        <v>1.000198890085262</v>
+      </c>
+      <c r="G28">
+        <v>1.000198890085262</v>
+      </c>
+      <c r="H28">
+        <v>0.9995624168083894</v>
+      </c>
+      <c r="I28">
+        <v>1.000530398680867</v>
+      </c>
+      <c r="J28">
+        <v>1.000198890085262</v>
+      </c>
+      <c r="K28">
+        <v>1.000198890085262</v>
+      </c>
+      <c r="L28">
+        <v>1.000198890085262</v>
+      </c>
+      <c r="M28">
+        <v>0.9997016486533059</v>
+      </c>
+      <c r="N28">
+        <v>0.9997016486533059</v>
+      </c>
+      <c r="O28">
+        <v>0.9996552380383337</v>
+      </c>
+      <c r="P28">
+        <v>0.9998673957972911</v>
+      </c>
+      <c r="Q28">
+        <v>0.9998673957972911</v>
+      </c>
+      <c r="R28">
+        <v>0.9999502693692838</v>
+      </c>
+      <c r="S28">
+        <v>0.9999502693692838</v>
+      </c>
+      <c r="T28">
+        <v>0.9999823154943984</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.99628618032852</v>
+      </c>
+      <c r="D29">
+        <v>1.000928436471181</v>
+      </c>
+      <c r="E29">
+        <v>0.99628618032852</v>
+      </c>
+      <c r="F29">
+        <v>1.000928436471181</v>
+      </c>
+      <c r="G29">
+        <v>1.000928436471181</v>
+      </c>
+      <c r="H29">
+        <v>0.9979573955966259</v>
+      </c>
+      <c r="I29">
+        <v>1.002475870780771</v>
+      </c>
+      <c r="J29">
+        <v>1.000928436471181</v>
+      </c>
+      <c r="K29">
+        <v>1.000928436471181</v>
+      </c>
+      <c r="L29">
+        <v>1.000928436471181</v>
+      </c>
+      <c r="M29">
+        <v>0.9986073083998506</v>
+      </c>
+      <c r="N29">
+        <v>0.9986073083998506</v>
+      </c>
+      <c r="O29">
+        <v>0.9983906707987756</v>
+      </c>
+      <c r="P29">
+        <v>0.9993810177569609</v>
+      </c>
+      <c r="Q29">
+        <v>0.9993810177569609</v>
+      </c>
+      <c r="R29">
+        <v>0.9997678724355159</v>
+      </c>
+      <c r="S29">
+        <v>0.9997678724355159</v>
+      </c>
+      <c r="T29">
+        <v>0.9999174593532435</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/ShearF-HW50.xlsx
+++ b/JupyterNotebooks/AvgHW/ShearF-HW50.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9994339536019146</v>
+        <v>1.002336354629532</v>
       </c>
       <c r="D4">
-        <v>1.000141507402168</v>
+        <v>0.9994159089285647</v>
       </c>
       <c r="E4">
-        <v>0.9994339536019146</v>
+        <v>1.002336354629532</v>
       </c>
       <c r="F4">
-        <v>1.000141507402168</v>
+        <v>0.9994159089285647</v>
       </c>
       <c r="G4">
-        <v>1.000141507402168</v>
+        <v>0.9994159089285647</v>
       </c>
       <c r="H4">
-        <v>0.9996886734132122</v>
+        <v>1.001284993553495</v>
       </c>
       <c r="I4">
-        <v>1.000377364964442</v>
+        <v>0.9984424292754448</v>
       </c>
       <c r="J4">
-        <v>1.000141507402168</v>
+        <v>0.9994159089285647</v>
       </c>
       <c r="K4">
-        <v>1.000141507402168</v>
+        <v>0.9994159089285647</v>
       </c>
       <c r="L4">
-        <v>1.000141507402168</v>
+        <v>0.9994159089285647</v>
       </c>
       <c r="M4">
-        <v>0.9997877305020414</v>
+        <v>1.000876131779048</v>
       </c>
       <c r="N4">
-        <v>0.9997877305020414</v>
+        <v>1.000876131779048</v>
       </c>
       <c r="O4">
-        <v>0.9997547114724318</v>
+        <v>1.001012419037197</v>
       </c>
       <c r="P4">
-        <v>0.999905656135417</v>
+        <v>1.000389390828887</v>
       </c>
       <c r="Q4">
-        <v>0.999905656135417</v>
+        <v>1.000389390828887</v>
       </c>
       <c r="R4">
-        <v>0.9999646189521048</v>
+        <v>1.000146020353806</v>
       </c>
       <c r="S4">
-        <v>0.9999646189521048</v>
+        <v>1.000146020353806</v>
       </c>
       <c r="T4">
-        <v>0.9999874190310122</v>
+        <v>1.000051917374028</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.002682605201731</v>
+        <v>0.9975845963308388</v>
       </c>
       <c r="D5">
-        <v>0.9993293461599416</v>
+        <v>1.000603841035816</v>
       </c>
       <c r="E5">
-        <v>1.002682605201731</v>
+        <v>0.9975845963308388</v>
       </c>
       <c r="F5">
-        <v>0.9993293461599416</v>
+        <v>1.000603841035816</v>
       </c>
       <c r="G5">
-        <v>0.9993293461599416</v>
+        <v>1.000603841035816</v>
       </c>
       <c r="H5">
-        <v>1.00147543080692</v>
+        <v>0.9986715319042414</v>
       </c>
       <c r="I5">
-        <v>0.9982115958933723</v>
+        <v>1.00161027037485</v>
       </c>
       <c r="J5">
-        <v>0.9993293461599416</v>
+        <v>1.000603841035816</v>
       </c>
       <c r="K5">
-        <v>0.9993293461599416</v>
+        <v>1.000603841035816</v>
       </c>
       <c r="L5">
-        <v>0.9993293461599416</v>
+        <v>1.000603841035816</v>
       </c>
       <c r="M5">
-        <v>1.001005975680836</v>
+        <v>0.9990942186833276</v>
       </c>
       <c r="N5">
-        <v>1.001005975680836</v>
+        <v>0.9990942186833276</v>
       </c>
       <c r="O5">
-        <v>1.001162460722864</v>
+        <v>0.9989533230902988</v>
       </c>
       <c r="P5">
-        <v>1.000447099173871</v>
+        <v>0.9995974261341573</v>
       </c>
       <c r="Q5">
-        <v>1.000447099173871</v>
+        <v>0.9995974261341573</v>
       </c>
       <c r="R5">
-        <v>1.000167660920389</v>
+        <v>0.9998490298595719</v>
       </c>
       <c r="S5">
-        <v>1.000167660920389</v>
+        <v>0.9998490298595719</v>
       </c>
       <c r="T5">
-        <v>1.000059611730308</v>
+        <v>0.9999463202862299</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.009175295174311</v>
+        <v>0.9994339536019146</v>
       </c>
       <c r="D6">
-        <v>0.9977061750085332</v>
+        <v>1.000141507402168</v>
       </c>
       <c r="E6">
-        <v>1.009175295174311</v>
+        <v>0.9994339536019146</v>
       </c>
       <c r="F6">
-        <v>0.9977061750085332</v>
+        <v>1.000141507402168</v>
       </c>
       <c r="G6">
-        <v>0.9977061750085332</v>
+        <v>1.000141507402168</v>
       </c>
       <c r="H6">
-        <v>1.005046401469855</v>
+        <v>0.9996886734132122</v>
       </c>
       <c r="I6">
-        <v>0.9938831411203861</v>
+        <v>1.000377364964442</v>
       </c>
       <c r="J6">
-        <v>0.9977061750085332</v>
+        <v>1.000141507402168</v>
       </c>
       <c r="K6">
-        <v>0.9977061750085332</v>
+        <v>1.000141507402168</v>
       </c>
       <c r="L6">
-        <v>0.9977061750085332</v>
+        <v>1.000141507402168</v>
       </c>
       <c r="M6">
-        <v>1.003440735091422</v>
+        <v>0.9997877305020414</v>
       </c>
       <c r="N6">
-        <v>1.003440735091422</v>
+        <v>0.9997877305020414</v>
       </c>
       <c r="O6">
-        <v>1.003975957217566</v>
+        <v>0.9997547114724318</v>
       </c>
       <c r="P6">
-        <v>1.001529215063792</v>
+        <v>0.999905656135417</v>
       </c>
       <c r="Q6">
-        <v>1.001529215063792</v>
+        <v>0.999905656135417</v>
       </c>
       <c r="R6">
-        <v>1.000573455049978</v>
+        <v>0.9999646189521048</v>
       </c>
       <c r="S6">
-        <v>1.000573455049978</v>
+        <v>0.9999646189521048</v>
       </c>
       <c r="T6">
-        <v>1.000203893798359</v>
+        <v>0.9999874190310122</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000270036324739</v>
+        <v>1.002682605201731</v>
       </c>
       <c r="D7">
-        <v>0.999932488117655</v>
+        <v>0.9993293461599416</v>
       </c>
       <c r="E7">
-        <v>1.000270036324739</v>
+        <v>1.002682605201731</v>
       </c>
       <c r="F7">
-        <v>0.999932488117655</v>
+        <v>0.9993293461599416</v>
       </c>
       <c r="G7">
-        <v>0.999932488117655</v>
+        <v>0.9993293461599416</v>
       </c>
       <c r="H7">
-        <v>1.000148518673758</v>
+        <v>1.00147543080692</v>
       </c>
       <c r="I7">
-        <v>0.999819975158847</v>
+        <v>0.9982115958933723</v>
       </c>
       <c r="J7">
-        <v>0.999932488117655</v>
+        <v>0.9993293461599416</v>
       </c>
       <c r="K7">
-        <v>0.999932488117655</v>
+        <v>0.9993293461599416</v>
       </c>
       <c r="L7">
-        <v>0.999932488117655</v>
+        <v>0.9993293461599416</v>
       </c>
       <c r="M7">
-        <v>1.000101262221197</v>
+        <v>1.001005975680836</v>
       </c>
       <c r="N7">
-        <v>1.000101262221197</v>
+        <v>1.001005975680836</v>
       </c>
       <c r="O7">
-        <v>1.000117014372051</v>
+        <v>1.001162460722864</v>
       </c>
       <c r="P7">
-        <v>1.000045004186683</v>
+        <v>1.000447099173871</v>
       </c>
       <c r="Q7">
-        <v>1.000045004186683</v>
+        <v>1.000447099173871</v>
       </c>
       <c r="R7">
-        <v>1.000016875169426</v>
+        <v>1.000167660920389</v>
       </c>
       <c r="S7">
-        <v>1.000016875169426</v>
+        <v>1.000167660920389</v>
       </c>
       <c r="T7">
-        <v>1.000005999085051</v>
+        <v>1.000059611730308</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000022860390393</v>
+        <v>1.009175295174311</v>
       </c>
       <c r="D8">
-        <v>0.9999942822547845</v>
+        <v>0.9977061750085332</v>
       </c>
       <c r="E8">
-        <v>1.000022860390393</v>
+        <v>1.009175295174311</v>
       </c>
       <c r="F8">
-        <v>0.9999942822547845</v>
+        <v>0.9977061750085332</v>
       </c>
       <c r="G8">
-        <v>0.9999942822547845</v>
+        <v>0.9977061750085332</v>
       </c>
       <c r="H8">
-        <v>1.0000125715139</v>
+        <v>1.005046401469855</v>
       </c>
       <c r="I8">
-        <v>0.9999847593117226</v>
+        <v>0.9938831411203861</v>
       </c>
       <c r="J8">
-        <v>0.9999942822547845</v>
+        <v>0.9977061750085332</v>
       </c>
       <c r="K8">
-        <v>0.9999942822547845</v>
+        <v>0.9977061750085332</v>
       </c>
       <c r="L8">
-        <v>0.9999942822547845</v>
+        <v>0.9977061750085332</v>
       </c>
       <c r="M8">
-        <v>1.000008571322589</v>
+        <v>1.003440735091422</v>
       </c>
       <c r="N8">
-        <v>1.000008571322589</v>
+        <v>1.003440735091422</v>
       </c>
       <c r="O8">
-        <v>1.000009904719692</v>
+        <v>1.003975957217566</v>
       </c>
       <c r="P8">
-        <v>1.000003808299987</v>
+        <v>1.001529215063792</v>
       </c>
       <c r="Q8">
-        <v>1.000003808299987</v>
+        <v>1.001529215063792</v>
       </c>
       <c r="R8">
-        <v>1.000001426788687</v>
+        <v>1.000573455049978</v>
       </c>
       <c r="S8">
-        <v>1.000001426788687</v>
+        <v>1.000573455049978</v>
       </c>
       <c r="T8">
-        <v>1.000000506330061</v>
+        <v>1.000203893798359</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000504638976168</v>
+        <v>1.000270036324739</v>
       </c>
       <c r="D9">
-        <v>0.9998738381124863</v>
+        <v>0.999932488117655</v>
       </c>
       <c r="E9">
-        <v>1.000504638976168</v>
+        <v>1.000270036324739</v>
       </c>
       <c r="F9">
-        <v>0.9998738381124863</v>
+        <v>0.999932488117655</v>
       </c>
       <c r="G9">
-        <v>0.9998738381124863</v>
+        <v>0.999932488117655</v>
       </c>
       <c r="H9">
-        <v>1.000277550320195</v>
+        <v>1.000148518673758</v>
       </c>
       <c r="I9">
-        <v>0.9996635714710189</v>
+        <v>0.999819975158847</v>
       </c>
       <c r="J9">
-        <v>0.9998738381124863</v>
+        <v>0.999932488117655</v>
       </c>
       <c r="K9">
-        <v>0.9998738381124863</v>
+        <v>0.999932488117655</v>
       </c>
       <c r="L9">
-        <v>0.9998738381124863</v>
+        <v>0.999932488117655</v>
       </c>
       <c r="M9">
-        <v>1.000189238544327</v>
+        <v>1.000101262221197</v>
       </c>
       <c r="N9">
-        <v>1.000189238544327</v>
+        <v>1.000101262221197</v>
       </c>
       <c r="O9">
-        <v>1.00021867580295</v>
+        <v>1.000117014372051</v>
       </c>
       <c r="P9">
-        <v>1.000084105067047</v>
+        <v>1.000045004186683</v>
       </c>
       <c r="Q9">
-        <v>1.000084105067047</v>
+        <v>1.000045004186683</v>
       </c>
       <c r="R9">
-        <v>1.000031538328407</v>
+        <v>1.000016875169426</v>
       </c>
       <c r="S9">
-        <v>1.000031538328407</v>
+        <v>1.000016875169426</v>
       </c>
       <c r="T9">
-        <v>1.000011212517473</v>
+        <v>1.000005999085051</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.009311986195228</v>
+        <v>1.000022860390393</v>
       </c>
       <c r="D10">
-        <v>0.9976720013234822</v>
+        <v>0.9999942822547845</v>
       </c>
       <c r="E10">
-        <v>1.009311986195228</v>
+        <v>1.000022860390393</v>
       </c>
       <c r="F10">
-        <v>0.9976720013234822</v>
+        <v>0.9999942822547845</v>
       </c>
       <c r="G10">
-        <v>0.9976720013234822</v>
+        <v>0.9999942822547845</v>
       </c>
       <c r="H10">
-        <v>1.005121582222298</v>
+        <v>1.0000125715139</v>
       </c>
       <c r="I10">
-        <v>0.9937920126960088</v>
+        <v>0.9999847593117226</v>
       </c>
       <c r="J10">
-        <v>0.9976720013234822</v>
+        <v>0.9999942822547845</v>
       </c>
       <c r="K10">
-        <v>0.9976720013234822</v>
+        <v>0.9999942822547845</v>
       </c>
       <c r="L10">
-        <v>0.9976720013234822</v>
+        <v>0.9999942822547845</v>
       </c>
       <c r="M10">
-        <v>1.003491993759355</v>
+        <v>1.000008571322589</v>
       </c>
       <c r="N10">
-        <v>1.003491993759355</v>
+        <v>1.000008571322589</v>
       </c>
       <c r="O10">
-        <v>1.004035189913669</v>
+        <v>1.000009904719692</v>
       </c>
       <c r="P10">
-        <v>1.001551996280731</v>
+        <v>1.000003808299987</v>
       </c>
       <c r="Q10">
-        <v>1.001551996280731</v>
+        <v>1.000003808299987</v>
       </c>
       <c r="R10">
-        <v>1.000581997541419</v>
+        <v>1.000001426788687</v>
       </c>
       <c r="S10">
-        <v>1.000581997541419</v>
+        <v>1.000001426788687</v>
       </c>
       <c r="T10">
-        <v>1.00020693084733</v>
+        <v>1.000000506330061</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000227023968476</v>
+        <v>1.000504638976168</v>
       </c>
       <c r="D11">
-        <v>0.9999432410915212</v>
+        <v>0.9998738381124863</v>
       </c>
       <c r="E11">
-        <v>1.000227023968476</v>
+        <v>1.000504638976168</v>
       </c>
       <c r="F11">
-        <v>0.9999432410915212</v>
+        <v>0.9998738381124863</v>
       </c>
       <c r="G11">
-        <v>0.9999432410915212</v>
+        <v>0.9998738381124863</v>
       </c>
       <c r="H11">
-        <v>1.000124860853113</v>
+        <v>1.000277550320195</v>
       </c>
       <c r="I11">
-        <v>0.9998486522485515</v>
+        <v>0.9996635714710189</v>
       </c>
       <c r="J11">
-        <v>0.9999432410915212</v>
+        <v>0.9998738381124863</v>
       </c>
       <c r="K11">
-        <v>0.9999432410915212</v>
+        <v>0.9998738381124863</v>
       </c>
       <c r="L11">
-        <v>0.9999432410915212</v>
+        <v>0.9998738381124863</v>
       </c>
       <c r="M11">
-        <v>1.000085132529999</v>
+        <v>1.000189238544327</v>
       </c>
       <c r="N11">
-        <v>1.000085132529999</v>
+        <v>1.000189238544327</v>
       </c>
       <c r="O11">
-        <v>1.00009837530437</v>
+        <v>1.00021867580295</v>
       </c>
       <c r="P11">
-        <v>1.00003783538384</v>
+        <v>1.000084105067047</v>
       </c>
       <c r="Q11">
-        <v>1.00003783538384</v>
+        <v>1.000084105067047</v>
       </c>
       <c r="R11">
-        <v>1.00001418681076</v>
+        <v>1.000031538328407</v>
       </c>
       <c r="S11">
-        <v>1.00001418681076</v>
+        <v>1.000031538328407</v>
       </c>
       <c r="T11">
-        <v>1.000005043390784</v>
+        <v>1.000011212517473</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.002773238968425</v>
+        <v>1.009311986195228</v>
       </c>
       <c r="D12">
-        <v>0.9993066859263178</v>
+        <v>0.9976720013234822</v>
       </c>
       <c r="E12">
-        <v>1.002773238968425</v>
+        <v>1.009311986195228</v>
       </c>
       <c r="F12">
-        <v>0.9993066859263178</v>
+        <v>0.9976720013234822</v>
       </c>
       <c r="G12">
-        <v>0.9993066859263178</v>
+        <v>0.9976720013234822</v>
       </c>
       <c r="H12">
-        <v>1.001525280368425</v>
+        <v>1.005121582222298</v>
       </c>
       <c r="I12">
-        <v>0.9981511711157895</v>
+        <v>0.9937920126960088</v>
       </c>
       <c r="J12">
-        <v>0.9993066859263178</v>
+        <v>0.9976720013234822</v>
       </c>
       <c r="K12">
-        <v>0.9993066859263178</v>
+        <v>0.9976720013234822</v>
       </c>
       <c r="L12">
-        <v>0.9993066859263178</v>
+        <v>0.9976720013234822</v>
       </c>
       <c r="M12">
-        <v>1.001039962447371</v>
+        <v>1.003491993759355</v>
       </c>
       <c r="N12">
-        <v>1.001039962447371</v>
+        <v>1.003491993759355</v>
       </c>
       <c r="O12">
-        <v>1.001201735087722</v>
+        <v>1.004035189913669</v>
       </c>
       <c r="P12">
-        <v>1.00046220360702</v>
+        <v>1.001551996280731</v>
       </c>
       <c r="Q12">
-        <v>1.00046220360702</v>
+        <v>1.001551996280731</v>
       </c>
       <c r="R12">
-        <v>1.000173324186844</v>
+        <v>1.000581997541419</v>
       </c>
       <c r="S12">
-        <v>1.000173324186844</v>
+        <v>1.000581997541419</v>
       </c>
       <c r="T12">
-        <v>1.000061624705265</v>
+        <v>1.00020693084733</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9981685738142615</v>
+        <v>1.000227023968476</v>
       </c>
       <c r="D13">
-        <v>1.000457850631867</v>
+        <v>0.9999432410915212</v>
       </c>
       <c r="E13">
-        <v>0.9981685738142615</v>
+        <v>1.000227023968476</v>
       </c>
       <c r="F13">
-        <v>1.000457850631867</v>
+        <v>0.9999432410915212</v>
       </c>
       <c r="G13">
-        <v>1.000457850631867</v>
+        <v>0.9999432410915212</v>
       </c>
       <c r="H13">
-        <v>0.9989927163288095</v>
+        <v>1.000124860853113</v>
       </c>
       <c r="I13">
-        <v>1.001220946494584</v>
+        <v>0.9998486522485515</v>
       </c>
       <c r="J13">
-        <v>1.000457850631867</v>
+        <v>0.9999432410915212</v>
       </c>
       <c r="K13">
-        <v>1.000457850631867</v>
+        <v>0.9999432410915212</v>
       </c>
       <c r="L13">
-        <v>1.000457850631867</v>
+        <v>0.9999432410915212</v>
       </c>
       <c r="M13">
-        <v>0.9993132122230641</v>
+        <v>1.000085132529999</v>
       </c>
       <c r="N13">
-        <v>0.9993132122230641</v>
+        <v>1.000085132529999</v>
       </c>
       <c r="O13">
-        <v>0.9992063802583125</v>
+        <v>1.00009837530437</v>
       </c>
       <c r="P13">
-        <v>0.9996947583593316</v>
+        <v>1.00003783538384</v>
       </c>
       <c r="Q13">
-        <v>0.9996947583593316</v>
+        <v>1.00003783538384</v>
       </c>
       <c r="R13">
-        <v>0.9998855314274654</v>
+        <v>1.00001418681076</v>
       </c>
       <c r="S13">
-        <v>0.9998855314274654</v>
+        <v>1.00001418681076</v>
       </c>
       <c r="T13">
-        <v>0.9999592980888758</v>
+        <v>1.000005043390784</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.016088400000001</v>
+        <v>1.002773238968425</v>
       </c>
       <c r="D14">
-        <v>0.9959779000000001</v>
+        <v>0.9993066859263178</v>
       </c>
       <c r="E14">
-        <v>1.016088400000001</v>
+        <v>1.002773238968425</v>
       </c>
       <c r="F14">
-        <v>0.9959779000000001</v>
+        <v>0.9993066859263178</v>
       </c>
       <c r="G14">
-        <v>0.9959779000000001</v>
+        <v>0.9993066859263178</v>
       </c>
       <c r="H14">
-        <v>1.008848599999999</v>
+        <v>1.001525280368425</v>
       </c>
       <c r="I14">
-        <v>0.9892744099999995</v>
+        <v>0.9981511711157895</v>
       </c>
       <c r="J14">
-        <v>0.9959779000000001</v>
+        <v>0.9993066859263178</v>
       </c>
       <c r="K14">
-        <v>0.9959779000000001</v>
+        <v>0.9993066859263178</v>
       </c>
       <c r="L14">
-        <v>0.9959779000000001</v>
+        <v>0.9993066859263178</v>
       </c>
       <c r="M14">
-        <v>1.00603315</v>
+        <v>1.001039962447371</v>
       </c>
       <c r="N14">
-        <v>1.00603315</v>
+        <v>1.001039962447371</v>
       </c>
       <c r="O14">
-        <v>1.006971633333333</v>
+        <v>1.001201735087722</v>
       </c>
       <c r="P14">
-        <v>1.0026814</v>
+        <v>1.00046220360702</v>
       </c>
       <c r="Q14">
-        <v>1.0026814</v>
+        <v>1.00046220360702</v>
       </c>
       <c r="R14">
-        <v>1.001005525</v>
+        <v>1.000173324186844</v>
       </c>
       <c r="S14">
-        <v>1.001005525</v>
+        <v>1.000173324186844</v>
       </c>
       <c r="T14">
-        <v>1.000357518333333</v>
+        <v>1.000061624705265</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9959779000000001</v>
+        <v>0.9981685738142615</v>
       </c>
       <c r="D15">
-        <v>1.0010055</v>
+        <v>1.000457850631867</v>
       </c>
       <c r="E15">
-        <v>0.9959779000000001</v>
+        <v>0.9981685738142615</v>
       </c>
       <c r="F15">
-        <v>1.0010055</v>
+        <v>1.000457850631867</v>
       </c>
       <c r="G15">
-        <v>1.0010055</v>
+        <v>1.000457850631867</v>
       </c>
       <c r="H15">
-        <v>0.99778785</v>
+        <v>0.9989927163288095</v>
       </c>
       <c r="I15">
-        <v>1.0026814</v>
+        <v>1.001220946494584</v>
       </c>
       <c r="J15">
-        <v>1.0010055</v>
+        <v>1.000457850631867</v>
       </c>
       <c r="K15">
-        <v>1.0010055</v>
+        <v>1.000457850631867</v>
       </c>
       <c r="L15">
-        <v>1.0010055</v>
+        <v>1.000457850631867</v>
       </c>
       <c r="M15">
-        <v>0.9984917</v>
+        <v>0.9993132122230641</v>
       </c>
       <c r="N15">
-        <v>0.9984917</v>
+        <v>0.9993132122230641</v>
       </c>
       <c r="O15">
-        <v>0.9982570833333333</v>
+        <v>0.9992063802583125</v>
       </c>
       <c r="P15">
-        <v>0.9993296333333334</v>
+        <v>0.9996947583593316</v>
       </c>
       <c r="Q15">
-        <v>0.9993296333333334</v>
+        <v>0.9996947583593316</v>
       </c>
       <c r="R15">
-        <v>0.9997486</v>
+        <v>0.9998855314274654</v>
       </c>
       <c r="S15">
-        <v>0.9997486</v>
+        <v>0.9998855314274654</v>
       </c>
       <c r="T15">
-        <v>0.9999106083333333</v>
+        <v>0.9999592980888758</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
+        <v>1.016088400000001</v>
+      </c>
+      <c r="D16">
         <v>0.9959779000000001</v>
       </c>
-      <c r="D16">
-        <v>1.0010055</v>
-      </c>
       <c r="E16">
+        <v>1.016088400000001</v>
+      </c>
+      <c r="F16">
         <v>0.9959779000000001</v>
       </c>
-      <c r="F16">
-        <v>1.0010055</v>
-      </c>
       <c r="G16">
-        <v>1.0010055</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="H16">
-        <v>0.99778785</v>
+        <v>1.008848599999999</v>
       </c>
       <c r="I16">
+        <v>0.9892744099999995</v>
+      </c>
+      <c r="J16">
+        <v>0.9959779000000001</v>
+      </c>
+      <c r="K16">
+        <v>0.9959779000000001</v>
+      </c>
+      <c r="L16">
+        <v>0.9959779000000001</v>
+      </c>
+      <c r="M16">
+        <v>1.00603315</v>
+      </c>
+      <c r="N16">
+        <v>1.00603315</v>
+      </c>
+      <c r="O16">
+        <v>1.006971633333333</v>
+      </c>
+      <c r="P16">
         <v>1.0026814</v>
       </c>
-      <c r="J16">
-        <v>1.0010055</v>
-      </c>
-      <c r="K16">
-        <v>1.0010055</v>
-      </c>
-      <c r="L16">
-        <v>1.0010055</v>
-      </c>
-      <c r="M16">
-        <v>0.9984917</v>
-      </c>
-      <c r="N16">
-        <v>0.9984917</v>
-      </c>
-      <c r="O16">
-        <v>0.9982570833333333</v>
-      </c>
-      <c r="P16">
-        <v>0.9993296333333334</v>
-      </c>
       <c r="Q16">
-        <v>0.9993296333333334</v>
+        <v>1.0026814</v>
       </c>
       <c r="R16">
-        <v>0.9997486</v>
+        <v>1.001005525</v>
       </c>
       <c r="S16">
-        <v>0.9997486</v>
+        <v>1.001005525</v>
       </c>
       <c r="T16">
-        <v>0.9999106083333333</v>
+        <v>1.000357518333333</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.98969338</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="D17">
-        <v>1.0025767</v>
+        <v>1.0010055</v>
       </c>
       <c r="E17">
-        <v>0.98969338</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="F17">
-        <v>1.0025767</v>
+        <v>1.0010055</v>
       </c>
       <c r="G17">
-        <v>1.0025767</v>
+        <v>1.0010055</v>
       </c>
       <c r="H17">
-        <v>0.99433136</v>
+        <v>0.99778785</v>
       </c>
       <c r="I17">
-        <v>1.0068711</v>
+        <v>1.0026814</v>
       </c>
       <c r="J17">
-        <v>1.0025767</v>
+        <v>1.0010055</v>
       </c>
       <c r="K17">
-        <v>1.0025767</v>
+        <v>1.0010055</v>
       </c>
       <c r="L17">
-        <v>1.0025767</v>
+        <v>1.0010055</v>
       </c>
       <c r="M17">
-        <v>0.99613504</v>
+        <v>0.9984917</v>
       </c>
       <c r="N17">
-        <v>0.99613504</v>
+        <v>0.9984917</v>
       </c>
       <c r="O17">
-        <v>0.9955338133333332</v>
+        <v>0.9982570833333333</v>
       </c>
       <c r="P17">
-        <v>0.99828226</v>
+        <v>0.9993296333333334</v>
       </c>
       <c r="Q17">
-        <v>0.99828226</v>
+        <v>0.9993296333333334</v>
       </c>
       <c r="R17">
-        <v>0.99935587</v>
+        <v>0.9997486</v>
       </c>
       <c r="S17">
-        <v>0.99935587</v>
+        <v>0.9997486</v>
       </c>
       <c r="T17">
-        <v>0.99977099</v>
+        <v>0.9999106083333333</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.005895405753425</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="D18">
-        <v>0.9985261443835616</v>
+        <v>1.0010055</v>
       </c>
       <c r="E18">
-        <v>1.005895405753425</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="F18">
-        <v>0.9985261443835616</v>
+        <v>1.0010055</v>
       </c>
       <c r="G18">
-        <v>0.9985261443835616</v>
+        <v>1.0010055</v>
       </c>
       <c r="H18">
-        <v>1.003242464246575</v>
+        <v>0.99778785</v>
       </c>
       <c r="I18">
-        <v>0.9960697315068493</v>
+        <v>1.0026814</v>
       </c>
       <c r="J18">
-        <v>0.9985261443835616</v>
+        <v>1.0010055</v>
       </c>
       <c r="K18">
-        <v>0.9985261443835616</v>
+        <v>1.0010055</v>
       </c>
       <c r="L18">
-        <v>0.9985261443835616</v>
+        <v>1.0010055</v>
       </c>
       <c r="M18">
-        <v>1.002210775068493</v>
+        <v>0.9984917</v>
       </c>
       <c r="N18">
-        <v>1.002210775068493</v>
+        <v>0.9984917</v>
       </c>
       <c r="O18">
-        <v>1.002554671461187</v>
+        <v>0.9982570833333333</v>
       </c>
       <c r="P18">
-        <v>1.000982564840183</v>
+        <v>0.9993296333333334</v>
       </c>
       <c r="Q18">
-        <v>1.000982564840183</v>
+        <v>0.9993296333333334</v>
       </c>
       <c r="R18">
-        <v>1.000368459726027</v>
+        <v>0.9997486</v>
       </c>
       <c r="S18">
-        <v>1.000368459726027</v>
+        <v>0.9997486</v>
       </c>
       <c r="T18">
-        <v>1.000131005776256</v>
+        <v>0.9999106083333333</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9988886242105264</v>
+        <v>0.98969338</v>
       </c>
       <c r="D19">
-        <v>1.000277834210526</v>
+        <v>1.0025767</v>
       </c>
       <c r="E19">
-        <v>0.9988886242105264</v>
+        <v>0.98969338</v>
       </c>
       <c r="F19">
-        <v>1.000277834210526</v>
+        <v>1.0025767</v>
       </c>
       <c r="G19">
-        <v>1.000277834210526</v>
+        <v>1.0025767</v>
       </c>
       <c r="H19">
-        <v>0.9993887473684211</v>
+        <v>0.99433136</v>
       </c>
       <c r="I19">
-        <v>1.000740918421053</v>
+        <v>1.0068711</v>
       </c>
       <c r="J19">
-        <v>1.000277834210526</v>
+        <v>1.0025767</v>
       </c>
       <c r="K19">
-        <v>1.000277834210526</v>
+        <v>1.0025767</v>
       </c>
       <c r="L19">
-        <v>1.000277834210526</v>
+        <v>1.0025767</v>
       </c>
       <c r="M19">
-        <v>0.9995832292105263</v>
+        <v>0.99613504</v>
       </c>
       <c r="N19">
-        <v>0.9995832292105263</v>
+        <v>0.99613504</v>
       </c>
       <c r="O19">
-        <v>0.9995184019298247</v>
+        <v>0.9955338133333332</v>
       </c>
       <c r="P19">
-        <v>0.9998147642105263</v>
+        <v>0.99828226</v>
       </c>
       <c r="Q19">
-        <v>0.9998147642105263</v>
+        <v>0.99828226</v>
       </c>
       <c r="R19">
-        <v>0.9999305317105263</v>
+        <v>0.99935587</v>
       </c>
       <c r="S19">
-        <v>0.9999305317105263</v>
+        <v>0.99935587</v>
       </c>
       <c r="T19">
-        <v>0.9999752987719298</v>
+        <v>0.99977099</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9988886242105264</v>
+        <v>1.005895405753425</v>
       </c>
       <c r="D20">
-        <v>1.000277834210526</v>
+        <v>0.9985261443835616</v>
       </c>
       <c r="E20">
-        <v>0.9988886242105264</v>
+        <v>1.005895405753425</v>
       </c>
       <c r="F20">
-        <v>1.000277834210526</v>
+        <v>0.9985261443835616</v>
       </c>
       <c r="G20">
-        <v>1.000277834210526</v>
+        <v>0.9985261443835616</v>
       </c>
       <c r="H20">
-        <v>0.9993887473684211</v>
+        <v>1.003242464246575</v>
       </c>
       <c r="I20">
-        <v>1.000740918421053</v>
+        <v>0.9960697315068493</v>
       </c>
       <c r="J20">
-        <v>1.000277834210526</v>
+        <v>0.9985261443835616</v>
       </c>
       <c r="K20">
-        <v>1.000277834210526</v>
+        <v>0.9985261443835616</v>
       </c>
       <c r="L20">
-        <v>1.000277834210526</v>
+        <v>0.9985261443835616</v>
       </c>
       <c r="M20">
-        <v>0.9995832292105263</v>
+        <v>1.002210775068493</v>
       </c>
       <c r="N20">
-        <v>0.9995832292105263</v>
+        <v>1.002210775068493</v>
       </c>
       <c r="O20">
-        <v>0.9995184019298247</v>
+        <v>1.002554671461187</v>
       </c>
       <c r="P20">
-        <v>0.9998147642105263</v>
+        <v>1.000982564840183</v>
       </c>
       <c r="Q20">
-        <v>0.9998147642105263</v>
+        <v>1.000982564840183</v>
       </c>
       <c r="R20">
-        <v>0.9999305317105263</v>
+        <v>1.000368459726027</v>
       </c>
       <c r="S20">
-        <v>0.9999305317105263</v>
+        <v>1.000368459726027</v>
       </c>
       <c r="T20">
-        <v>0.9999752987719298</v>
+        <v>1.000131005776256</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9970390191027829</v>
+        <v>0.9988886242105264</v>
       </c>
       <c r="D21">
-        <v>1.000740231517839</v>
+        <v>1.000277834210526</v>
       </c>
       <c r="E21">
-        <v>0.9970390191027829</v>
+        <v>0.9988886242105264</v>
       </c>
       <c r="F21">
-        <v>1.000740231517839</v>
+        <v>1.000277834210526</v>
       </c>
       <c r="G21">
-        <v>1.000740231517839</v>
+        <v>1.000277834210526</v>
       </c>
       <c r="H21">
-        <v>0.9983714688877133</v>
+        <v>0.9993887473684211</v>
       </c>
       <c r="I21">
-        <v>1.001973980505824</v>
+        <v>1.000740918421053</v>
       </c>
       <c r="J21">
-        <v>1.000740231517839</v>
+        <v>1.000277834210526</v>
       </c>
       <c r="K21">
-        <v>1.000740231517839</v>
+        <v>1.000277834210526</v>
       </c>
       <c r="L21">
-        <v>1.000740231517839</v>
+        <v>1.000277834210526</v>
       </c>
       <c r="M21">
-        <v>0.9988896253103111</v>
+        <v>0.9995832292105263</v>
       </c>
       <c r="N21">
-        <v>0.9988896253103111</v>
+        <v>0.9995832292105263</v>
       </c>
       <c r="O21">
-        <v>0.9987169065027786</v>
+        <v>0.9995184019298247</v>
       </c>
       <c r="P21">
-        <v>0.9995064940461539</v>
+        <v>0.9998147642105263</v>
       </c>
       <c r="Q21">
-        <v>0.9995064940461539</v>
+        <v>0.9998147642105263</v>
       </c>
       <c r="R21">
-        <v>0.9998149284140752</v>
+        <v>0.9999305317105263</v>
       </c>
       <c r="S21">
-        <v>0.9998149284140752</v>
+        <v>0.9999305317105263</v>
       </c>
       <c r="T21">
-        <v>0.9999341938416396</v>
+        <v>0.9999752987719298</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9992335485138972</v>
+        <v>0.9988886242105264</v>
       </c>
       <c r="D22">
-        <v>1.000191609808738</v>
+        <v>1.000277834210526</v>
       </c>
       <c r="E22">
-        <v>0.9992335485138972</v>
+        <v>0.9988886242105264</v>
       </c>
       <c r="F22">
-        <v>1.000191609808738</v>
+        <v>1.000277834210526</v>
       </c>
       <c r="G22">
-        <v>1.000191609808738</v>
+        <v>1.000277834210526</v>
       </c>
       <c r="H22">
-        <v>0.9995784494664681</v>
+        <v>0.9993887473684211</v>
       </c>
       <c r="I22">
-        <v>1.000510962408722</v>
+        <v>1.000740918421053</v>
       </c>
       <c r="J22">
-        <v>1.000191609808738</v>
+        <v>1.000277834210526</v>
       </c>
       <c r="K22">
-        <v>1.000191609808738</v>
+        <v>1.000277834210526</v>
       </c>
       <c r="L22">
-        <v>1.000191609808738</v>
+        <v>1.000277834210526</v>
       </c>
       <c r="M22">
-        <v>0.9997125791613178</v>
+        <v>0.9995832292105263</v>
       </c>
       <c r="N22">
-        <v>0.9997125791613178</v>
+        <v>0.9995832292105263</v>
       </c>
       <c r="O22">
-        <v>0.9996678692630345</v>
+        <v>0.9995184019298247</v>
       </c>
       <c r="P22">
-        <v>0.9998722560437914</v>
+        <v>0.9998147642105263</v>
       </c>
       <c r="Q22">
-        <v>0.9998722560437914</v>
+        <v>0.9998147642105263</v>
       </c>
       <c r="R22">
-        <v>0.9999520944850282</v>
+        <v>0.9999305317105263</v>
       </c>
       <c r="S22">
-        <v>0.9999520944850282</v>
+        <v>0.9999305317105263</v>
       </c>
       <c r="T22">
-        <v>0.9999829649692171</v>
+        <v>0.9999752987719298</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.9987442807092567</v>
+        <v>0.9970390191027829</v>
       </c>
       <c r="D23">
-        <v>1.000313923165885</v>
+        <v>1.000740231517839</v>
       </c>
       <c r="E23">
-        <v>0.9987442807092567</v>
+        <v>0.9970390191027829</v>
       </c>
       <c r="F23">
-        <v>1.000313923165885</v>
+        <v>1.000740231517839</v>
       </c>
       <c r="G23">
-        <v>1.000313923165885</v>
+        <v>1.000740231517839</v>
       </c>
       <c r="H23">
-        <v>0.9993093563590919</v>
+        <v>0.9983714688877133</v>
       </c>
       <c r="I23">
-        <v>1.000837139764808</v>
+        <v>1.001973980505824</v>
       </c>
       <c r="J23">
-        <v>1.000313923165885</v>
+        <v>1.000740231517839</v>
       </c>
       <c r="K23">
-        <v>1.000313923165885</v>
+        <v>1.000740231517839</v>
       </c>
       <c r="L23">
-        <v>1.000313923165885</v>
+        <v>1.000740231517839</v>
       </c>
       <c r="M23">
-        <v>0.9995291019375707</v>
+        <v>0.9988896253103111</v>
       </c>
       <c r="N23">
-        <v>0.9995291019375707</v>
+        <v>0.9988896253103111</v>
       </c>
       <c r="O23">
-        <v>0.9994558534114111</v>
+        <v>0.9987169065027786</v>
       </c>
       <c r="P23">
-        <v>0.9997907090136753</v>
+        <v>0.9995064940461539</v>
       </c>
       <c r="Q23">
-        <v>0.9997907090136753</v>
+        <v>0.9995064940461539</v>
       </c>
       <c r="R23">
-        <v>0.9999215125517276</v>
+        <v>0.9998149284140752</v>
       </c>
       <c r="S23">
-        <v>0.9999215125517276</v>
+        <v>0.9998149284140752</v>
       </c>
       <c r="T23">
-        <v>0.9999720910551351</v>
+        <v>0.9999341938416396</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9996777471256533</v>
+        <v>0.9992335485138972</v>
       </c>
       <c r="D24">
-        <v>1.000080556694701</v>
+        <v>1.000191609808738</v>
       </c>
       <c r="E24">
-        <v>0.9996777471256533</v>
+        <v>0.9992335485138972</v>
       </c>
       <c r="F24">
-        <v>1.000080556694701</v>
+        <v>1.000191609808738</v>
       </c>
       <c r="G24">
-        <v>1.000080556694701</v>
+        <v>1.000191609808738</v>
       </c>
       <c r="H24">
-        <v>0.9998227609416107</v>
+        <v>0.9995784494664681</v>
       </c>
       <c r="I24">
-        <v>1.000214833475117</v>
+        <v>1.000510962408722</v>
       </c>
       <c r="J24">
-        <v>1.000080556694701</v>
+        <v>1.000191609808738</v>
       </c>
       <c r="K24">
-        <v>1.000080556694701</v>
+        <v>1.000191609808738</v>
       </c>
       <c r="L24">
-        <v>1.000080556694701</v>
+        <v>1.000191609808738</v>
       </c>
       <c r="M24">
-        <v>0.9998791519101771</v>
+        <v>0.9997125791613178</v>
       </c>
       <c r="N24">
-        <v>0.9998791519101771</v>
+        <v>0.9997125791613178</v>
       </c>
       <c r="O24">
-        <v>0.9998603549206549</v>
+        <v>0.9996678692630345</v>
       </c>
       <c r="P24">
-        <v>0.9999462868383517</v>
+        <v>0.9998722560437914</v>
       </c>
       <c r="Q24">
-        <v>0.9999462868383517</v>
+        <v>0.9998722560437914</v>
       </c>
       <c r="R24">
-        <v>0.999979854302439</v>
+        <v>0.9999520944850282</v>
       </c>
       <c r="S24">
-        <v>0.999979854302439</v>
+        <v>0.9999520944850282</v>
       </c>
       <c r="T24">
-        <v>0.9999928352710805</v>
+        <v>0.9999829649692171</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.9970390191027829</v>
+        <v>0.9987442807092567</v>
       </c>
       <c r="D25">
-        <v>1.000740231517839</v>
+        <v>1.000313923165885</v>
       </c>
       <c r="E25">
-        <v>0.9970390191027829</v>
+        <v>0.9987442807092567</v>
       </c>
       <c r="F25">
-        <v>1.000740231517839</v>
+        <v>1.000313923165885</v>
       </c>
       <c r="G25">
-        <v>1.000740231517839</v>
+        <v>1.000313923165885</v>
       </c>
       <c r="H25">
-        <v>0.9983714688877133</v>
+        <v>0.9993093563590919</v>
       </c>
       <c r="I25">
-        <v>1.001973980505824</v>
+        <v>1.000837139764808</v>
       </c>
       <c r="J25">
-        <v>1.000740231517839</v>
+        <v>1.000313923165885</v>
       </c>
       <c r="K25">
-        <v>1.000740231517839</v>
+        <v>1.000313923165885</v>
       </c>
       <c r="L25">
-        <v>1.000740231517839</v>
+        <v>1.000313923165885</v>
       </c>
       <c r="M25">
-        <v>0.9988896253103111</v>
+        <v>0.9995291019375707</v>
       </c>
       <c r="N25">
-        <v>0.9988896253103111</v>
+        <v>0.9995291019375707</v>
       </c>
       <c r="O25">
-        <v>0.9987169065027786</v>
+        <v>0.9994558534114111</v>
       </c>
       <c r="P25">
-        <v>0.9995064940461539</v>
+        <v>0.9997907090136753</v>
       </c>
       <c r="Q25">
-        <v>0.9995064940461539</v>
+        <v>0.9997907090136753</v>
       </c>
       <c r="R25">
-        <v>0.9998149284140752</v>
+        <v>0.9999215125517276</v>
       </c>
       <c r="S25">
-        <v>0.9998149284140752</v>
+        <v>0.9999215125517276</v>
       </c>
       <c r="T25">
-        <v>0.9999341938416396</v>
+        <v>0.9999720910551351</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.9992335485138972</v>
+        <v>0.9996777471256533</v>
       </c>
       <c r="D26">
-        <v>1.000191609808738</v>
+        <v>1.000080556694701</v>
       </c>
       <c r="E26">
-        <v>0.9992335485138972</v>
+        <v>0.9996777471256533</v>
       </c>
       <c r="F26">
-        <v>1.000191609808738</v>
+        <v>1.000080556694701</v>
       </c>
       <c r="G26">
-        <v>1.000191609808738</v>
+        <v>1.000080556694701</v>
       </c>
       <c r="H26">
-        <v>0.9995784494664681</v>
+        <v>0.9998227609416107</v>
       </c>
       <c r="I26">
-        <v>1.000510962408722</v>
+        <v>1.000214833475117</v>
       </c>
       <c r="J26">
-        <v>1.000191609808738</v>
+        <v>1.000080556694701</v>
       </c>
       <c r="K26">
-        <v>1.000191609808738</v>
+        <v>1.000080556694701</v>
       </c>
       <c r="L26">
-        <v>1.000191609808738</v>
+        <v>1.000080556694701</v>
       </c>
       <c r="M26">
-        <v>0.9997125791613178</v>
+        <v>0.9998791519101771</v>
       </c>
       <c r="N26">
-        <v>0.9997125791613178</v>
+        <v>0.9998791519101771</v>
       </c>
       <c r="O26">
-        <v>0.9996678692630345</v>
+        <v>0.9998603549206549</v>
       </c>
       <c r="P26">
-        <v>0.9998722560437914</v>
+        <v>0.9999462868383517</v>
       </c>
       <c r="Q26">
-        <v>0.9998722560437914</v>
+        <v>0.9999462868383517</v>
       </c>
       <c r="R26">
-        <v>0.9999520944850282</v>
+        <v>0.999979854302439</v>
       </c>
       <c r="S26">
-        <v>0.9999520944850282</v>
+        <v>0.999979854302439</v>
       </c>
       <c r="T26">
-        <v>0.9999829649692171</v>
+        <v>0.9999928352710805</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>1.000958862078786</v>
+        <v>0.9970390191027829</v>
       </c>
       <c r="D27">
-        <v>0.9997602810726715</v>
+        <v>1.000740231517839</v>
       </c>
       <c r="E27">
-        <v>1.000958862078786</v>
+        <v>0.9970390191027829</v>
       </c>
       <c r="F27">
-        <v>0.9997602810726715</v>
+        <v>1.000740231517839</v>
       </c>
       <c r="G27">
-        <v>0.9997602810726715</v>
+        <v>1.000740231517839</v>
       </c>
       <c r="H27">
-        <v>1.000527376453478</v>
+        <v>0.9983714688877133</v>
       </c>
       <c r="I27">
-        <v>0.9993607651568207</v>
+        <v>1.001973980505824</v>
       </c>
       <c r="J27">
-        <v>0.9997602810726715</v>
+        <v>1.000740231517839</v>
       </c>
       <c r="K27">
-        <v>0.9997602810726715</v>
+        <v>1.000740231517839</v>
       </c>
       <c r="L27">
-        <v>0.9997602810726715</v>
+        <v>1.000740231517839</v>
       </c>
       <c r="M27">
-        <v>1.000359571575729</v>
+        <v>0.9988896253103111</v>
       </c>
       <c r="N27">
-        <v>1.000359571575729</v>
+        <v>0.9988896253103111</v>
       </c>
       <c r="O27">
-        <v>1.000415506534978</v>
+        <v>0.9987169065027786</v>
       </c>
       <c r="P27">
-        <v>1.00015980807471</v>
+        <v>0.9995064940461539</v>
       </c>
       <c r="Q27">
-        <v>1.00015980807471</v>
+        <v>0.9995064940461539</v>
       </c>
       <c r="R27">
-        <v>1.0000599263242</v>
+        <v>0.9998149284140752</v>
       </c>
       <c r="S27">
-        <v>1.0000599263242</v>
+        <v>0.9998149284140752</v>
       </c>
       <c r="T27">
-        <v>1.00002130781785</v>
+        <v>0.9999341938416396</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.9992044072213501</v>
+        <v>0.9992335485138972</v>
       </c>
       <c r="D28">
-        <v>1.000198890085262</v>
+        <v>1.000191609808738</v>
       </c>
       <c r="E28">
-        <v>0.9992044072213501</v>
+        <v>0.9992335485138972</v>
       </c>
       <c r="F28">
-        <v>1.000198890085262</v>
+        <v>1.000191609808738</v>
       </c>
       <c r="G28">
-        <v>1.000198890085262</v>
+        <v>1.000191609808738</v>
       </c>
       <c r="H28">
-        <v>0.9995624168083894</v>
+        <v>0.9995784494664681</v>
       </c>
       <c r="I28">
-        <v>1.000530398680867</v>
+        <v>1.000510962408722</v>
       </c>
       <c r="J28">
-        <v>1.000198890085262</v>
+        <v>1.000191609808738</v>
       </c>
       <c r="K28">
-        <v>1.000198890085262</v>
+        <v>1.000191609808738</v>
       </c>
       <c r="L28">
-        <v>1.000198890085262</v>
+        <v>1.000191609808738</v>
       </c>
       <c r="M28">
-        <v>0.9997016486533059</v>
+        <v>0.9997125791613178</v>
       </c>
       <c r="N28">
-        <v>0.9997016486533059</v>
+        <v>0.9997125791613178</v>
       </c>
       <c r="O28">
-        <v>0.9996552380383337</v>
+        <v>0.9996678692630345</v>
       </c>
       <c r="P28">
-        <v>0.9998673957972911</v>
+        <v>0.9998722560437914</v>
       </c>
       <c r="Q28">
-        <v>0.9998673957972911</v>
+        <v>0.9998722560437914</v>
       </c>
       <c r="R28">
-        <v>0.9999502693692838</v>
+        <v>0.9999520944850282</v>
       </c>
       <c r="S28">
-        <v>0.9999502693692838</v>
+        <v>0.9999520944850282</v>
       </c>
       <c r="T28">
-        <v>0.9999823154943984</v>
+        <v>0.9999829649692171</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>1.000958862078786</v>
+      </c>
+      <c r="D29">
+        <v>0.9997602810726715</v>
+      </c>
+      <c r="E29">
+        <v>1.000958862078786</v>
+      </c>
+      <c r="F29">
+        <v>0.9997602810726715</v>
+      </c>
+      <c r="G29">
+        <v>0.9997602810726715</v>
+      </c>
+      <c r="H29">
+        <v>1.000527376453478</v>
+      </c>
+      <c r="I29">
+        <v>0.9993607651568207</v>
+      </c>
+      <c r="J29">
+        <v>0.9997602810726715</v>
+      </c>
+      <c r="K29">
+        <v>0.9997602810726715</v>
+      </c>
+      <c r="L29">
+        <v>0.9997602810726715</v>
+      </c>
+      <c r="M29">
+        <v>1.000359571575729</v>
+      </c>
+      <c r="N29">
+        <v>1.000359571575729</v>
+      </c>
+      <c r="O29">
+        <v>1.000415506534978</v>
+      </c>
+      <c r="P29">
+        <v>1.00015980807471</v>
+      </c>
+      <c r="Q29">
+        <v>1.00015980807471</v>
+      </c>
+      <c r="R29">
+        <v>1.0000599263242</v>
+      </c>
+      <c r="S29">
+        <v>1.0000599263242</v>
+      </c>
+      <c r="T29">
+        <v>1.00002130781785</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9992044072213501</v>
+      </c>
+      <c r="D30">
+        <v>1.000198890085262</v>
+      </c>
+      <c r="E30">
+        <v>0.9992044072213501</v>
+      </c>
+      <c r="F30">
+        <v>1.000198890085262</v>
+      </c>
+      <c r="G30">
+        <v>1.000198890085262</v>
+      </c>
+      <c r="H30">
+        <v>0.9995624168083894</v>
+      </c>
+      <c r="I30">
+        <v>1.000530398680867</v>
+      </c>
+      <c r="J30">
+        <v>1.000198890085262</v>
+      </c>
+      <c r="K30">
+        <v>1.000198890085262</v>
+      </c>
+      <c r="L30">
+        <v>1.000198890085262</v>
+      </c>
+      <c r="M30">
+        <v>0.9997016486533059</v>
+      </c>
+      <c r="N30">
+        <v>0.9997016486533059</v>
+      </c>
+      <c r="O30">
+        <v>0.9996552380383337</v>
+      </c>
+      <c r="P30">
+        <v>0.9998673957972911</v>
+      </c>
+      <c r="Q30">
+        <v>0.9998673957972911</v>
+      </c>
+      <c r="R30">
+        <v>0.9999502693692838</v>
+      </c>
+      <c r="S30">
+        <v>0.9999502693692838</v>
+      </c>
+      <c r="T30">
+        <v>0.9999823154943984</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>0.99628618032852</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>1.000928436471181</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.99628618032852</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>1.000928436471181</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>1.000928436471181</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>0.9979573955966259</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>1.002475870780771</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>1.000928436471181</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>1.000928436471181</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>1.000928436471181</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>0.9986073083998506</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>0.9986073083998506</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>0.9983906707987756</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>0.9993810177569609</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>0.9993810177569609</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>0.9997678724355159</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>0.9997678724355159</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>0.9999174593532435</v>
       </c>
     </row>
